--- a/file_generators/conditions/10m-for-2d-0700to2300_28C-20C_55rh_heliospectra_s10.xlsx
+++ b/file_generators/conditions/10m-for-2d-0700to2300_28C-20C_55rh_heliospectra_s10.xlsx
@@ -417,16 +417,26 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>channel-8channel-9channel-10</t>
+          <t>channel-8</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>channel-9</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>channel-10</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43854</v>
+        <v>43875</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43854</v>
+        <v>43875</v>
       </c>
       <c r="C2" t="n">
         <v>55</v>
@@ -458,13 +468,19 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43854.00694444445</v>
+        <v>43875.00694444445</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>43854.00694444445</v>
+        <v>43875.00694444445</v>
       </c>
       <c r="C3" t="n">
         <v>55</v>
@@ -496,13 +512,19 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>43854.01388888889</v>
+        <v>43875.01388888889</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>43854.01388888889</v>
+        <v>43875.01388888889</v>
       </c>
       <c r="C4" t="n">
         <v>55</v>
@@ -534,13 +556,19 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43854.02083333334</v>
+        <v>43875.02083333334</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>43854.02083333334</v>
+        <v>43875.02083333334</v>
       </c>
       <c r="C5" t="n">
         <v>55</v>
@@ -572,13 +600,19 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43854.02777777778</v>
+        <v>43875.02777777778</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>43854.02777777778</v>
+        <v>43875.02777777778</v>
       </c>
       <c r="C6" t="n">
         <v>55</v>
@@ -610,13 +644,19 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43854.03472222222</v>
+        <v>43875.03472222222</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>43854.03472222222</v>
+        <v>43875.03472222222</v>
       </c>
       <c r="C7" t="n">
         <v>55</v>
@@ -648,13 +688,19 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43854.04166666666</v>
+        <v>43875.04166666666</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43854.04166666666</v>
+        <v>43875.04166666666</v>
       </c>
       <c r="C8" t="n">
         <v>55</v>
@@ -686,13 +732,19 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43854.04861111111</v>
+        <v>43875.04861111111</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43854.04861111111</v>
+        <v>43875.04861111111</v>
       </c>
       <c r="C9" t="n">
         <v>55</v>
@@ -724,13 +776,19 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43854.05555555555</v>
+        <v>43875.05555555555</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43854.05555555555</v>
+        <v>43875.05555555555</v>
       </c>
       <c r="C10" t="n">
         <v>55</v>
@@ -762,13 +820,19 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>43854.0625</v>
+        <v>43875.0625</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43854.0625</v>
+        <v>43875.0625</v>
       </c>
       <c r="C11" t="n">
         <v>55</v>
@@ -800,13 +864,19 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43854.06944444445</v>
+        <v>43875.06944444445</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43854.06944444445</v>
+        <v>43875.06944444445</v>
       </c>
       <c r="C12" t="n">
         <v>55</v>
@@ -838,13 +908,19 @@
       <c r="L12" t="n">
         <v>0</v>
       </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43854.07638888889</v>
+        <v>43875.07638888889</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43854.07638888889</v>
+        <v>43875.07638888889</v>
       </c>
       <c r="C13" t="n">
         <v>55</v>
@@ -876,13 +952,19 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>43854.08333333334</v>
+        <v>43875.08333333334</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43854.08333333334</v>
+        <v>43875.08333333334</v>
       </c>
       <c r="C14" t="n">
         <v>55</v>
@@ -914,13 +996,19 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>43854.09027777778</v>
+        <v>43875.09027777778</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>43854.09027777778</v>
+        <v>43875.09027777778</v>
       </c>
       <c r="C15" t="n">
         <v>55</v>
@@ -952,13 +1040,19 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>43854.09722222222</v>
+        <v>43875.09722222222</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>43854.09722222222</v>
+        <v>43875.09722222222</v>
       </c>
       <c r="C16" t="n">
         <v>55</v>
@@ -990,13 +1084,19 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43854.10416666666</v>
+        <v>43875.10416666666</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43854.10416666666</v>
+        <v>43875.10416666666</v>
       </c>
       <c r="C17" t="n">
         <v>55</v>
@@ -1028,13 +1128,19 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>43854.11111111111</v>
+        <v>43875.11111111111</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43854.11111111111</v>
+        <v>43875.11111111111</v>
       </c>
       <c r="C18" t="n">
         <v>55</v>
@@ -1066,13 +1172,19 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43854.11805555555</v>
+        <v>43875.11805555555</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43854.11805555555</v>
+        <v>43875.11805555555</v>
       </c>
       <c r="C19" t="n">
         <v>55</v>
@@ -1104,13 +1216,19 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43854.125</v>
+        <v>43875.125</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43854.125</v>
+        <v>43875.125</v>
       </c>
       <c r="C20" t="n">
         <v>55</v>
@@ -1142,13 +1260,19 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43854.13194444445</v>
+        <v>43875.13194444445</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43854.13194444445</v>
+        <v>43875.13194444445</v>
       </c>
       <c r="C21" t="n">
         <v>55</v>
@@ -1180,13 +1304,19 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43854.13888888889</v>
+        <v>43875.13888888889</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43854.13888888889</v>
+        <v>43875.13888888889</v>
       </c>
       <c r="C22" t="n">
         <v>55</v>
@@ -1218,13 +1348,19 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43854.14583333334</v>
+        <v>43875.14583333334</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43854.14583333334</v>
+        <v>43875.14583333334</v>
       </c>
       <c r="C23" t="n">
         <v>55</v>
@@ -1256,13 +1392,19 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43854.15277777778</v>
+        <v>43875.15277777778</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43854.15277777778</v>
+        <v>43875.15277777778</v>
       </c>
       <c r="C24" t="n">
         <v>55</v>
@@ -1294,13 +1436,19 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43854.15972222222</v>
+        <v>43875.15972222222</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43854.15972222222</v>
+        <v>43875.15972222222</v>
       </c>
       <c r="C25" t="n">
         <v>55</v>
@@ -1332,13 +1480,19 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43854.16666666666</v>
+        <v>43875.16666666666</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43854.16666666666</v>
+        <v>43875.16666666666</v>
       </c>
       <c r="C26" t="n">
         <v>55</v>
@@ -1370,13 +1524,19 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43854.17361111111</v>
+        <v>43875.17361111111</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43854.17361111111</v>
+        <v>43875.17361111111</v>
       </c>
       <c r="C27" t="n">
         <v>55</v>
@@ -1408,13 +1568,19 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43854.18055555555</v>
+        <v>43875.18055555555</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43854.18055555555</v>
+        <v>43875.18055555555</v>
       </c>
       <c r="C28" t="n">
         <v>55</v>
@@ -1446,13 +1612,19 @@
       <c r="L28" t="n">
         <v>0</v>
       </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43854.1875</v>
+        <v>43875.1875</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43854.1875</v>
+        <v>43875.1875</v>
       </c>
       <c r="C29" t="n">
         <v>55</v>
@@ -1484,13 +1656,19 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43854.19444444445</v>
+        <v>43875.19444444445</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43854.19444444445</v>
+        <v>43875.19444444445</v>
       </c>
       <c r="C30" t="n">
         <v>55</v>
@@ -1522,13 +1700,19 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43854.20138888889</v>
+        <v>43875.20138888889</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43854.20138888889</v>
+        <v>43875.20138888889</v>
       </c>
       <c r="C31" t="n">
         <v>55</v>
@@ -1560,13 +1744,19 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43854.20833333334</v>
+        <v>43875.20833333334</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43854.20833333334</v>
+        <v>43875.20833333334</v>
       </c>
       <c r="C32" t="n">
         <v>55</v>
@@ -1598,13 +1788,19 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43854.21527777778</v>
+        <v>43875.21527777778</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43854.21527777778</v>
+        <v>43875.21527777778</v>
       </c>
       <c r="C33" t="n">
         <v>55</v>
@@ -1636,13 +1832,19 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>43854.22222222222</v>
+        <v>43875.22222222222</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43854.22222222222</v>
+        <v>43875.22222222222</v>
       </c>
       <c r="C34" t="n">
         <v>55</v>
@@ -1674,13 +1876,19 @@
       <c r="L34" t="n">
         <v>0</v>
       </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>43854.22916666666</v>
+        <v>43875.22916666666</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43854.22916666666</v>
+        <v>43875.22916666666</v>
       </c>
       <c r="C35" t="n">
         <v>55</v>
@@ -1712,13 +1920,19 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43854.23611111111</v>
+        <v>43875.23611111111</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43854.23611111111</v>
+        <v>43875.23611111111</v>
       </c>
       <c r="C36" t="n">
         <v>55</v>
@@ -1750,13 +1964,19 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>43854.24305555555</v>
+        <v>43875.24305555555</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43854.24305555555</v>
+        <v>43875.24305555555</v>
       </c>
       <c r="C37" t="n">
         <v>55</v>
@@ -1788,13 +2008,19 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>43854.25</v>
+        <v>43875.25</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43854.25</v>
+        <v>43875.25</v>
       </c>
       <c r="C38" t="n">
         <v>55</v>
@@ -1826,13 +2052,19 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>43854.25694444445</v>
+        <v>43875.25694444445</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43854.25694444445</v>
+        <v>43875.25694444445</v>
       </c>
       <c r="C39" t="n">
         <v>55</v>
@@ -1864,13 +2096,19 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>43854.26388888889</v>
+        <v>43875.26388888889</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43854.26388888889</v>
+        <v>43875.26388888889</v>
       </c>
       <c r="C40" t="n">
         <v>55</v>
@@ -1902,13 +2140,19 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43854.27083333334</v>
+        <v>43875.27083333334</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43854.27083333334</v>
+        <v>43875.27083333334</v>
       </c>
       <c r="C41" t="n">
         <v>55</v>
@@ -1940,13 +2184,19 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>43854.27777777778</v>
+        <v>43875.27777777778</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43854.27777777778</v>
+        <v>43875.27777777778</v>
       </c>
       <c r="C42" t="n">
         <v>55</v>
@@ -1978,13 +2228,19 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43854.28472222222</v>
+        <v>43875.28472222222</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43854.28472222222</v>
+        <v>43875.28472222222</v>
       </c>
       <c r="C43" t="n">
         <v>55</v>
@@ -2016,13 +2272,19 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43854.29166666666</v>
+        <v>43875.29166666666</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43854.29166666666</v>
+        <v>43875.29166666666</v>
       </c>
       <c r="C44" t="n">
         <v>55</v>
@@ -2052,15 +2314,21 @@
         <v>100</v>
       </c>
       <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>100</v>
+      </c>
+      <c r="N44" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43854.29861111111</v>
+        <v>43875.29861111111</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43854.29861111111</v>
+        <v>43875.29861111111</v>
       </c>
       <c r="C45" t="n">
         <v>55</v>
@@ -2090,15 +2358,21 @@
         <v>100</v>
       </c>
       <c r="L45" t="n">
+        <v>100</v>
+      </c>
+      <c r="M45" t="n">
+        <v>100</v>
+      </c>
+      <c r="N45" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>43854.30555555555</v>
+        <v>43875.30555555555</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43854.30555555555</v>
+        <v>43875.30555555555</v>
       </c>
       <c r="C46" t="n">
         <v>55</v>
@@ -2128,15 +2402,21 @@
         <v>100</v>
       </c>
       <c r="L46" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" t="n">
+        <v>100</v>
+      </c>
+      <c r="N46" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>43854.3125</v>
+        <v>43875.3125</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43854.3125</v>
+        <v>43875.3125</v>
       </c>
       <c r="C47" t="n">
         <v>55</v>
@@ -2166,15 +2446,21 @@
         <v>100</v>
       </c>
       <c r="L47" t="n">
+        <v>100</v>
+      </c>
+      <c r="M47" t="n">
+        <v>100</v>
+      </c>
+      <c r="N47" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43854.31944444445</v>
+        <v>43875.31944444445</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43854.31944444445</v>
+        <v>43875.31944444445</v>
       </c>
       <c r="C48" t="n">
         <v>55</v>
@@ -2204,15 +2490,21 @@
         <v>100</v>
       </c>
       <c r="L48" t="n">
+        <v>100</v>
+      </c>
+      <c r="M48" t="n">
+        <v>100</v>
+      </c>
+      <c r="N48" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43854.32638888889</v>
+        <v>43875.32638888889</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43854.32638888889</v>
+        <v>43875.32638888889</v>
       </c>
       <c r="C49" t="n">
         <v>55</v>
@@ -2242,15 +2534,21 @@
         <v>100</v>
       </c>
       <c r="L49" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" t="n">
+        <v>100</v>
+      </c>
+      <c r="N49" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>43854.33333333334</v>
+        <v>43875.33333333334</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43854.33333333334</v>
+        <v>43875.33333333334</v>
       </c>
       <c r="C50" t="n">
         <v>55</v>
@@ -2280,15 +2578,21 @@
         <v>100</v>
       </c>
       <c r="L50" t="n">
+        <v>100</v>
+      </c>
+      <c r="M50" t="n">
+        <v>100</v>
+      </c>
+      <c r="N50" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>43854.34027777778</v>
+        <v>43875.34027777778</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43854.34027777778</v>
+        <v>43875.34027777778</v>
       </c>
       <c r="C51" t="n">
         <v>55</v>
@@ -2318,15 +2622,21 @@
         <v>100</v>
       </c>
       <c r="L51" t="n">
+        <v>100</v>
+      </c>
+      <c r="M51" t="n">
+        <v>100</v>
+      </c>
+      <c r="N51" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>43854.34722222222</v>
+        <v>43875.34722222222</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43854.34722222222</v>
+        <v>43875.34722222222</v>
       </c>
       <c r="C52" t="n">
         <v>55</v>
@@ -2356,15 +2666,21 @@
         <v>100</v>
       </c>
       <c r="L52" t="n">
+        <v>100</v>
+      </c>
+      <c r="M52" t="n">
+        <v>100</v>
+      </c>
+      <c r="N52" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>43854.35416666666</v>
+        <v>43875.35416666666</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43854.35416666666</v>
+        <v>43875.35416666666</v>
       </c>
       <c r="C53" t="n">
         <v>55</v>
@@ -2394,15 +2710,21 @@
         <v>100</v>
       </c>
       <c r="L53" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" t="n">
+        <v>100</v>
+      </c>
+      <c r="N53" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>43854.36111111111</v>
+        <v>43875.36111111111</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43854.36111111111</v>
+        <v>43875.36111111111</v>
       </c>
       <c r="C54" t="n">
         <v>55</v>
@@ -2432,15 +2754,21 @@
         <v>100</v>
       </c>
       <c r="L54" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" t="n">
+        <v>100</v>
+      </c>
+      <c r="N54" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>43854.36805555555</v>
+        <v>43875.36805555555</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43854.36805555555</v>
+        <v>43875.36805555555</v>
       </c>
       <c r="C55" t="n">
         <v>55</v>
@@ -2470,15 +2798,21 @@
         <v>100</v>
       </c>
       <c r="L55" t="n">
+        <v>100</v>
+      </c>
+      <c r="M55" t="n">
+        <v>100</v>
+      </c>
+      <c r="N55" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>43854.375</v>
+        <v>43875.375</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43854.375</v>
+        <v>43875.375</v>
       </c>
       <c r="C56" t="n">
         <v>55</v>
@@ -2508,15 +2842,21 @@
         <v>100</v>
       </c>
       <c r="L56" t="n">
+        <v>100</v>
+      </c>
+      <c r="M56" t="n">
+        <v>100</v>
+      </c>
+      <c r="N56" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43854.38194444445</v>
+        <v>43875.38194444445</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43854.38194444445</v>
+        <v>43875.38194444445</v>
       </c>
       <c r="C57" t="n">
         <v>55</v>
@@ -2546,15 +2886,21 @@
         <v>100</v>
       </c>
       <c r="L57" t="n">
+        <v>100</v>
+      </c>
+      <c r="M57" t="n">
+        <v>100</v>
+      </c>
+      <c r="N57" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43854.38888888889</v>
+        <v>43875.38888888889</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43854.38888888889</v>
+        <v>43875.38888888889</v>
       </c>
       <c r="C58" t="n">
         <v>55</v>
@@ -2584,15 +2930,21 @@
         <v>100</v>
       </c>
       <c r="L58" t="n">
+        <v>100</v>
+      </c>
+      <c r="M58" t="n">
+        <v>100</v>
+      </c>
+      <c r="N58" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43854.39583333334</v>
+        <v>43875.39583333334</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43854.39583333334</v>
+        <v>43875.39583333334</v>
       </c>
       <c r="C59" t="n">
         <v>55</v>
@@ -2622,15 +2974,21 @@
         <v>100</v>
       </c>
       <c r="L59" t="n">
+        <v>100</v>
+      </c>
+      <c r="M59" t="n">
+        <v>100</v>
+      </c>
+      <c r="N59" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43854.40277777778</v>
+        <v>43875.40277777778</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43854.40277777778</v>
+        <v>43875.40277777778</v>
       </c>
       <c r="C60" t="n">
         <v>55</v>
@@ -2660,15 +3018,21 @@
         <v>100</v>
       </c>
       <c r="L60" t="n">
+        <v>100</v>
+      </c>
+      <c r="M60" t="n">
+        <v>100</v>
+      </c>
+      <c r="N60" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43854.40972222222</v>
+        <v>43875.40972222222</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43854.40972222222</v>
+        <v>43875.40972222222</v>
       </c>
       <c r="C61" t="n">
         <v>55</v>
@@ -2698,15 +3062,21 @@
         <v>100</v>
       </c>
       <c r="L61" t="n">
+        <v>100</v>
+      </c>
+      <c r="M61" t="n">
+        <v>100</v>
+      </c>
+      <c r="N61" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43854.41666666666</v>
+        <v>43875.41666666666</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43854.41666666666</v>
+        <v>43875.41666666666</v>
       </c>
       <c r="C62" t="n">
         <v>55</v>
@@ -2736,15 +3106,21 @@
         <v>100</v>
       </c>
       <c r="L62" t="n">
+        <v>100</v>
+      </c>
+      <c r="M62" t="n">
+        <v>100</v>
+      </c>
+      <c r="N62" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43854.42361111111</v>
+        <v>43875.42361111111</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43854.42361111111</v>
+        <v>43875.42361111111</v>
       </c>
       <c r="C63" t="n">
         <v>55</v>
@@ -2774,15 +3150,21 @@
         <v>100</v>
       </c>
       <c r="L63" t="n">
+        <v>100</v>
+      </c>
+      <c r="M63" t="n">
+        <v>100</v>
+      </c>
+      <c r="N63" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43854.43055555555</v>
+        <v>43875.43055555555</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43854.43055555555</v>
+        <v>43875.43055555555</v>
       </c>
       <c r="C64" t="n">
         <v>55</v>
@@ -2812,15 +3194,21 @@
         <v>100</v>
       </c>
       <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="n">
+        <v>100</v>
+      </c>
+      <c r="N64" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43854.4375</v>
+        <v>43875.4375</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43854.4375</v>
+        <v>43875.4375</v>
       </c>
       <c r="C65" t="n">
         <v>55</v>
@@ -2850,15 +3238,21 @@
         <v>100</v>
       </c>
       <c r="L65" t="n">
+        <v>100</v>
+      </c>
+      <c r="M65" t="n">
+        <v>100</v>
+      </c>
+      <c r="N65" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43854.44444444445</v>
+        <v>43875.44444444445</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43854.44444444445</v>
+        <v>43875.44444444445</v>
       </c>
       <c r="C66" t="n">
         <v>55</v>
@@ -2888,15 +3282,21 @@
         <v>100</v>
       </c>
       <c r="L66" t="n">
+        <v>100</v>
+      </c>
+      <c r="M66" t="n">
+        <v>100</v>
+      </c>
+      <c r="N66" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43854.45138888889</v>
+        <v>43875.45138888889</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43854.45138888889</v>
+        <v>43875.45138888889</v>
       </c>
       <c r="C67" t="n">
         <v>55</v>
@@ -2926,15 +3326,21 @@
         <v>100</v>
       </c>
       <c r="L67" t="n">
+        <v>100</v>
+      </c>
+      <c r="M67" t="n">
+        <v>100</v>
+      </c>
+      <c r="N67" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43854.45833333334</v>
+        <v>43875.45833333334</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43854.45833333334</v>
+        <v>43875.45833333334</v>
       </c>
       <c r="C68" t="n">
         <v>55</v>
@@ -2964,15 +3370,21 @@
         <v>100</v>
       </c>
       <c r="L68" t="n">
+        <v>100</v>
+      </c>
+      <c r="M68" t="n">
+        <v>100</v>
+      </c>
+      <c r="N68" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43854.46527777778</v>
+        <v>43875.46527777778</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43854.46527777778</v>
+        <v>43875.46527777778</v>
       </c>
       <c r="C69" t="n">
         <v>55</v>
@@ -3002,15 +3414,21 @@
         <v>100</v>
       </c>
       <c r="L69" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" t="n">
+        <v>100</v>
+      </c>
+      <c r="N69" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43854.47222222222</v>
+        <v>43875.47222222222</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43854.47222222222</v>
+        <v>43875.47222222222</v>
       </c>
       <c r="C70" t="n">
         <v>55</v>
@@ -3040,15 +3458,21 @@
         <v>100</v>
       </c>
       <c r="L70" t="n">
+        <v>100</v>
+      </c>
+      <c r="M70" t="n">
+        <v>100</v>
+      </c>
+      <c r="N70" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43854.47916666666</v>
+        <v>43875.47916666666</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43854.47916666666</v>
+        <v>43875.47916666666</v>
       </c>
       <c r="C71" t="n">
         <v>55</v>
@@ -3078,15 +3502,21 @@
         <v>100</v>
       </c>
       <c r="L71" t="n">
+        <v>100</v>
+      </c>
+      <c r="M71" t="n">
+        <v>100</v>
+      </c>
+      <c r="N71" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43854.48611111111</v>
+        <v>43875.48611111111</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43854.48611111111</v>
+        <v>43875.48611111111</v>
       </c>
       <c r="C72" t="n">
         <v>55</v>
@@ -3116,15 +3546,21 @@
         <v>100</v>
       </c>
       <c r="L72" t="n">
+        <v>100</v>
+      </c>
+      <c r="M72" t="n">
+        <v>100</v>
+      </c>
+      <c r="N72" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43854.49305555555</v>
+        <v>43875.49305555555</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43854.49305555555</v>
+        <v>43875.49305555555</v>
       </c>
       <c r="C73" t="n">
         <v>55</v>
@@ -3154,15 +3590,21 @@
         <v>100</v>
       </c>
       <c r="L73" t="n">
+        <v>100</v>
+      </c>
+      <c r="M73" t="n">
+        <v>100</v>
+      </c>
+      <c r="N73" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43854.5</v>
+        <v>43875.5</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43854.5</v>
+        <v>43875.5</v>
       </c>
       <c r="C74" t="n">
         <v>55</v>
@@ -3192,15 +3634,21 @@
         <v>100</v>
       </c>
       <c r="L74" t="n">
+        <v>100</v>
+      </c>
+      <c r="M74" t="n">
+        <v>100</v>
+      </c>
+      <c r="N74" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43854.50694444445</v>
+        <v>43875.50694444445</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43854.50694444445</v>
+        <v>43875.50694444445</v>
       </c>
       <c r="C75" t="n">
         <v>55</v>
@@ -3230,15 +3678,21 @@
         <v>100</v>
       </c>
       <c r="L75" t="n">
+        <v>100</v>
+      </c>
+      <c r="M75" t="n">
+        <v>100</v>
+      </c>
+      <c r="N75" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43854.51388888889</v>
+        <v>43875.51388888889</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43854.51388888889</v>
+        <v>43875.51388888889</v>
       </c>
       <c r="C76" t="n">
         <v>55</v>
@@ -3268,15 +3722,21 @@
         <v>100</v>
       </c>
       <c r="L76" t="n">
+        <v>100</v>
+      </c>
+      <c r="M76" t="n">
+        <v>100</v>
+      </c>
+      <c r="N76" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43854.52083333334</v>
+        <v>43875.52083333334</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43854.52083333334</v>
+        <v>43875.52083333334</v>
       </c>
       <c r="C77" t="n">
         <v>55</v>
@@ -3306,15 +3766,21 @@
         <v>100</v>
       </c>
       <c r="L77" t="n">
+        <v>100</v>
+      </c>
+      <c r="M77" t="n">
+        <v>100</v>
+      </c>
+      <c r="N77" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43854.52777777778</v>
+        <v>43875.52777777778</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43854.52777777778</v>
+        <v>43875.52777777778</v>
       </c>
       <c r="C78" t="n">
         <v>55</v>
@@ -3344,15 +3810,21 @@
         <v>100</v>
       </c>
       <c r="L78" t="n">
+        <v>100</v>
+      </c>
+      <c r="M78" t="n">
+        <v>100</v>
+      </c>
+      <c r="N78" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43854.53472222222</v>
+        <v>43875.53472222222</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43854.53472222222</v>
+        <v>43875.53472222222</v>
       </c>
       <c r="C79" t="n">
         <v>55</v>
@@ -3382,15 +3854,21 @@
         <v>100</v>
       </c>
       <c r="L79" t="n">
+        <v>100</v>
+      </c>
+      <c r="M79" t="n">
+        <v>100</v>
+      </c>
+      <c r="N79" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43854.54166666666</v>
+        <v>43875.54166666666</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43854.54166666666</v>
+        <v>43875.54166666666</v>
       </c>
       <c r="C80" t="n">
         <v>55</v>
@@ -3420,15 +3898,21 @@
         <v>100</v>
       </c>
       <c r="L80" t="n">
+        <v>100</v>
+      </c>
+      <c r="M80" t="n">
+        <v>100</v>
+      </c>
+      <c r="N80" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43854.54861111111</v>
+        <v>43875.54861111111</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43854.54861111111</v>
+        <v>43875.54861111111</v>
       </c>
       <c r="C81" t="n">
         <v>55</v>
@@ -3458,15 +3942,21 @@
         <v>100</v>
       </c>
       <c r="L81" t="n">
+        <v>100</v>
+      </c>
+      <c r="M81" t="n">
+        <v>100</v>
+      </c>
+      <c r="N81" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43854.55555555555</v>
+        <v>43875.55555555555</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43854.55555555555</v>
+        <v>43875.55555555555</v>
       </c>
       <c r="C82" t="n">
         <v>55</v>
@@ -3496,15 +3986,21 @@
         <v>100</v>
       </c>
       <c r="L82" t="n">
+        <v>100</v>
+      </c>
+      <c r="M82" t="n">
+        <v>100</v>
+      </c>
+      <c r="N82" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43854.5625</v>
+        <v>43875.5625</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43854.5625</v>
+        <v>43875.5625</v>
       </c>
       <c r="C83" t="n">
         <v>55</v>
@@ -3534,15 +4030,21 @@
         <v>100</v>
       </c>
       <c r="L83" t="n">
+        <v>100</v>
+      </c>
+      <c r="M83" t="n">
+        <v>100</v>
+      </c>
+      <c r="N83" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43854.56944444445</v>
+        <v>43875.56944444445</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43854.56944444445</v>
+        <v>43875.56944444445</v>
       </c>
       <c r="C84" t="n">
         <v>55</v>
@@ -3572,15 +4074,21 @@
         <v>100</v>
       </c>
       <c r="L84" t="n">
+        <v>100</v>
+      </c>
+      <c r="M84" t="n">
+        <v>100</v>
+      </c>
+      <c r="N84" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43854.57638888889</v>
+        <v>43875.57638888889</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43854.57638888889</v>
+        <v>43875.57638888889</v>
       </c>
       <c r="C85" t="n">
         <v>55</v>
@@ -3610,15 +4118,21 @@
         <v>100</v>
       </c>
       <c r="L85" t="n">
+        <v>100</v>
+      </c>
+      <c r="M85" t="n">
+        <v>100</v>
+      </c>
+      <c r="N85" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43854.58333333334</v>
+        <v>43875.58333333334</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43854.58333333334</v>
+        <v>43875.58333333334</v>
       </c>
       <c r="C86" t="n">
         <v>55</v>
@@ -3648,15 +4162,21 @@
         <v>100</v>
       </c>
       <c r="L86" t="n">
+        <v>100</v>
+      </c>
+      <c r="M86" t="n">
+        <v>100</v>
+      </c>
+      <c r="N86" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43854.59027777778</v>
+        <v>43875.59027777778</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43854.59027777778</v>
+        <v>43875.59027777778</v>
       </c>
       <c r="C87" t="n">
         <v>55</v>
@@ -3686,15 +4206,21 @@
         <v>100</v>
       </c>
       <c r="L87" t="n">
+        <v>100</v>
+      </c>
+      <c r="M87" t="n">
+        <v>100</v>
+      </c>
+      <c r="N87" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43854.59722222222</v>
+        <v>43875.59722222222</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43854.59722222222</v>
+        <v>43875.59722222222</v>
       </c>
       <c r="C88" t="n">
         <v>55</v>
@@ -3724,15 +4250,21 @@
         <v>100</v>
       </c>
       <c r="L88" t="n">
+        <v>100</v>
+      </c>
+      <c r="M88" t="n">
+        <v>100</v>
+      </c>
+      <c r="N88" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43854.60416666666</v>
+        <v>43875.60416666666</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43854.60416666666</v>
+        <v>43875.60416666666</v>
       </c>
       <c r="C89" t="n">
         <v>55</v>
@@ -3762,15 +4294,21 @@
         <v>100</v>
       </c>
       <c r="L89" t="n">
+        <v>100</v>
+      </c>
+      <c r="M89" t="n">
+        <v>100</v>
+      </c>
+      <c r="N89" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43854.61111111111</v>
+        <v>43875.61111111111</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43854.61111111111</v>
+        <v>43875.61111111111</v>
       </c>
       <c r="C90" t="n">
         <v>55</v>
@@ -3800,15 +4338,21 @@
         <v>100</v>
       </c>
       <c r="L90" t="n">
+        <v>100</v>
+      </c>
+      <c r="M90" t="n">
+        <v>100</v>
+      </c>
+      <c r="N90" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43854.61805555555</v>
+        <v>43875.61805555555</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43854.61805555555</v>
+        <v>43875.61805555555</v>
       </c>
       <c r="C91" t="n">
         <v>55</v>
@@ -3838,15 +4382,21 @@
         <v>100</v>
       </c>
       <c r="L91" t="n">
+        <v>100</v>
+      </c>
+      <c r="M91" t="n">
+        <v>100</v>
+      </c>
+      <c r="N91" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43854.625</v>
+        <v>43875.625</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43854.625</v>
+        <v>43875.625</v>
       </c>
       <c r="C92" t="n">
         <v>55</v>
@@ -3876,15 +4426,21 @@
         <v>100</v>
       </c>
       <c r="L92" t="n">
+        <v>100</v>
+      </c>
+      <c r="M92" t="n">
+        <v>100</v>
+      </c>
+      <c r="N92" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43854.63194444445</v>
+        <v>43875.63194444445</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43854.63194444445</v>
+        <v>43875.63194444445</v>
       </c>
       <c r="C93" t="n">
         <v>55</v>
@@ -3914,15 +4470,21 @@
         <v>100</v>
       </c>
       <c r="L93" t="n">
+        <v>100</v>
+      </c>
+      <c r="M93" t="n">
+        <v>100</v>
+      </c>
+      <c r="N93" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43854.63888888889</v>
+        <v>43875.63888888889</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43854.63888888889</v>
+        <v>43875.63888888889</v>
       </c>
       <c r="C94" t="n">
         <v>55</v>
@@ -3952,15 +4514,21 @@
         <v>100</v>
       </c>
       <c r="L94" t="n">
+        <v>100</v>
+      </c>
+      <c r="M94" t="n">
+        <v>100</v>
+      </c>
+      <c r="N94" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43854.64583333334</v>
+        <v>43875.64583333334</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43854.64583333334</v>
+        <v>43875.64583333334</v>
       </c>
       <c r="C95" t="n">
         <v>55</v>
@@ -3990,15 +4558,21 @@
         <v>100</v>
       </c>
       <c r="L95" t="n">
+        <v>100</v>
+      </c>
+      <c r="M95" t="n">
+        <v>100</v>
+      </c>
+      <c r="N95" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>43854.65277777778</v>
+        <v>43875.65277777778</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43854.65277777778</v>
+        <v>43875.65277777778</v>
       </c>
       <c r="C96" t="n">
         <v>55</v>
@@ -4028,15 +4602,21 @@
         <v>100</v>
       </c>
       <c r="L96" t="n">
+        <v>100</v>
+      </c>
+      <c r="M96" t="n">
+        <v>100</v>
+      </c>
+      <c r="N96" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>43854.65972222222</v>
+        <v>43875.65972222222</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43854.65972222222</v>
+        <v>43875.65972222222</v>
       </c>
       <c r="C97" t="n">
         <v>55</v>
@@ -4066,15 +4646,21 @@
         <v>100</v>
       </c>
       <c r="L97" t="n">
+        <v>100</v>
+      </c>
+      <c r="M97" t="n">
+        <v>100</v>
+      </c>
+      <c r="N97" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>43854.66666666666</v>
+        <v>43875.66666666666</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43854.66666666666</v>
+        <v>43875.66666666666</v>
       </c>
       <c r="C98" t="n">
         <v>55</v>
@@ -4104,15 +4690,21 @@
         <v>100</v>
       </c>
       <c r="L98" t="n">
+        <v>100</v>
+      </c>
+      <c r="M98" t="n">
+        <v>100</v>
+      </c>
+      <c r="N98" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>43854.67361111111</v>
+        <v>43875.67361111111</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43854.67361111111</v>
+        <v>43875.67361111111</v>
       </c>
       <c r="C99" t="n">
         <v>55</v>
@@ -4142,15 +4734,21 @@
         <v>100</v>
       </c>
       <c r="L99" t="n">
+        <v>100</v>
+      </c>
+      <c r="M99" t="n">
+        <v>100</v>
+      </c>
+      <c r="N99" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>43854.68055555555</v>
+        <v>43875.68055555555</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43854.68055555555</v>
+        <v>43875.68055555555</v>
       </c>
       <c r="C100" t="n">
         <v>55</v>
@@ -4180,15 +4778,21 @@
         <v>100</v>
       </c>
       <c r="L100" t="n">
+        <v>100</v>
+      </c>
+      <c r="M100" t="n">
+        <v>100</v>
+      </c>
+      <c r="N100" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>43854.6875</v>
+        <v>43875.6875</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43854.6875</v>
+        <v>43875.6875</v>
       </c>
       <c r="C101" t="n">
         <v>55</v>
@@ -4218,15 +4822,21 @@
         <v>100</v>
       </c>
       <c r="L101" t="n">
+        <v>100</v>
+      </c>
+      <c r="M101" t="n">
+        <v>100</v>
+      </c>
+      <c r="N101" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>43854.69444444445</v>
+        <v>43875.69444444445</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43854.69444444445</v>
+        <v>43875.69444444445</v>
       </c>
       <c r="C102" t="n">
         <v>55</v>
@@ -4256,15 +4866,21 @@
         <v>100</v>
       </c>
       <c r="L102" t="n">
+        <v>100</v>
+      </c>
+      <c r="M102" t="n">
+        <v>100</v>
+      </c>
+      <c r="N102" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>43854.70138888889</v>
+        <v>43875.70138888889</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43854.70138888889</v>
+        <v>43875.70138888889</v>
       </c>
       <c r="C103" t="n">
         <v>55</v>
@@ -4294,1383 +4910,1605 @@
         <v>100</v>
       </c>
       <c r="L103" t="n">
+        <v>100</v>
+      </c>
+      <c r="M103" t="n">
+        <v>100</v>
+      </c>
+      <c r="N103" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>43854.70833333334</v>
+        <v>43875.70833333334</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43854.70833333334</v>
+        <v>43875.70833333334</v>
       </c>
       <c r="C104" t="n">
         <v>55</v>
       </c>
       <c r="D104" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M104" t="n">
+        <v>100</v>
+      </c>
+      <c r="N104" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>43854.71527777778</v>
+        <v>43875.71527777778</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43854.71527777778</v>
+        <v>43875.71527777778</v>
       </c>
       <c r="C105" t="n">
         <v>55</v>
       </c>
       <c r="D105" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M105" t="n">
+        <v>100</v>
+      </c>
+      <c r="N105" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>43854.72222222222</v>
+        <v>43875.72222222222</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43854.72222222222</v>
+        <v>43875.72222222222</v>
       </c>
       <c r="C106" t="n">
         <v>55</v>
       </c>
       <c r="D106" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M106" t="n">
+        <v>100</v>
+      </c>
+      <c r="N106" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>43854.72916666666</v>
+        <v>43875.72916666666</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43854.72916666666</v>
+        <v>43875.72916666666</v>
       </c>
       <c r="C107" t="n">
         <v>55</v>
       </c>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M107" t="n">
+        <v>100</v>
+      </c>
+      <c r="N107" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>43854.73611111111</v>
+        <v>43875.73611111111</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43854.73611111111</v>
+        <v>43875.73611111111</v>
       </c>
       <c r="C108" t="n">
         <v>55</v>
       </c>
       <c r="D108" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M108" t="n">
+        <v>100</v>
+      </c>
+      <c r="N108" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>43854.74305555555</v>
+        <v>43875.74305555555</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43854.74305555555</v>
+        <v>43875.74305555555</v>
       </c>
       <c r="C109" t="n">
         <v>55</v>
       </c>
       <c r="D109" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M109" t="n">
+        <v>100</v>
+      </c>
+      <c r="N109" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>43854.75</v>
+        <v>43875.75</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43854.75</v>
+        <v>43875.75</v>
       </c>
       <c r="C110" t="n">
         <v>55</v>
       </c>
       <c r="D110" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M110" t="n">
+        <v>100</v>
+      </c>
+      <c r="N110" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>43854.75694444445</v>
+        <v>43875.75694444445</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43854.75694444445</v>
+        <v>43875.75694444445</v>
       </c>
       <c r="C111" t="n">
         <v>55</v>
       </c>
       <c r="D111" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M111" t="n">
+        <v>100</v>
+      </c>
+      <c r="N111" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>43854.76388888889</v>
+        <v>43875.76388888889</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43854.76388888889</v>
+        <v>43875.76388888889</v>
       </c>
       <c r="C112" t="n">
         <v>55</v>
       </c>
       <c r="D112" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M112" t="n">
+        <v>100</v>
+      </c>
+      <c r="N112" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>43854.77083333334</v>
+        <v>43875.77083333334</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43854.77083333334</v>
+        <v>43875.77083333334</v>
       </c>
       <c r="C113" t="n">
         <v>55</v>
       </c>
       <c r="D113" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M113" t="n">
+        <v>100</v>
+      </c>
+      <c r="N113" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>43854.77777777778</v>
+        <v>43875.77777777778</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43854.77777777778</v>
+        <v>43875.77777777778</v>
       </c>
       <c r="C114" t="n">
         <v>55</v>
       </c>
       <c r="D114" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M114" t="n">
+        <v>100</v>
+      </c>
+      <c r="N114" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>43854.78472222222</v>
+        <v>43875.78472222222</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43854.78472222222</v>
+        <v>43875.78472222222</v>
       </c>
       <c r="C115" t="n">
         <v>55</v>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M115" t="n">
+        <v>100</v>
+      </c>
+      <c r="N115" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>43854.79166666666</v>
+        <v>43875.79166666666</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43854.79166666666</v>
+        <v>43875.79166666666</v>
       </c>
       <c r="C116" t="n">
         <v>55</v>
       </c>
       <c r="D116" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M116" t="n">
+        <v>100</v>
+      </c>
+      <c r="N116" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>43854.79861111111</v>
+        <v>43875.79861111111</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43854.79861111111</v>
+        <v>43875.79861111111</v>
       </c>
       <c r="C117" t="n">
         <v>55</v>
       </c>
       <c r="D117" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M117" t="n">
+        <v>100</v>
+      </c>
+      <c r="N117" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>43854.80555555555</v>
+        <v>43875.80555555555</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43854.80555555555</v>
+        <v>43875.80555555555</v>
       </c>
       <c r="C118" t="n">
         <v>55</v>
       </c>
       <c r="D118" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M118" t="n">
+        <v>100</v>
+      </c>
+      <c r="N118" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>43854.8125</v>
+        <v>43875.8125</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43854.8125</v>
+        <v>43875.8125</v>
       </c>
       <c r="C119" t="n">
         <v>55</v>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M119" t="n">
+        <v>100</v>
+      </c>
+      <c r="N119" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>43854.81944444445</v>
+        <v>43875.81944444445</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>43854.81944444445</v>
+        <v>43875.81944444445</v>
       </c>
       <c r="C120" t="n">
         <v>55</v>
       </c>
       <c r="D120" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M120" t="n">
+        <v>100</v>
+      </c>
+      <c r="N120" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>43854.82638888889</v>
+        <v>43875.82638888889</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43854.82638888889</v>
+        <v>43875.82638888889</v>
       </c>
       <c r="C121" t="n">
         <v>55</v>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M121" t="n">
+        <v>100</v>
+      </c>
+      <c r="N121" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>43854.83333333334</v>
+        <v>43875.83333333334</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43854.83333333334</v>
+        <v>43875.83333333334</v>
       </c>
       <c r="C122" t="n">
         <v>55</v>
       </c>
       <c r="D122" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M122" t="n">
+        <v>100</v>
+      </c>
+      <c r="N122" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>43854.84027777778</v>
+        <v>43875.84027777778</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43854.84027777778</v>
+        <v>43875.84027777778</v>
       </c>
       <c r="C123" t="n">
         <v>55</v>
       </c>
       <c r="D123" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M123" t="n">
+        <v>100</v>
+      </c>
+      <c r="N123" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>43854.84722222222</v>
+        <v>43875.84722222222</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43854.84722222222</v>
+        <v>43875.84722222222</v>
       </c>
       <c r="C124" t="n">
         <v>55</v>
       </c>
       <c r="D124" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M124" t="n">
+        <v>100</v>
+      </c>
+      <c r="N124" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>43854.85416666666</v>
+        <v>43875.85416666666</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43854.85416666666</v>
+        <v>43875.85416666666</v>
       </c>
       <c r="C125" t="n">
         <v>55</v>
       </c>
       <c r="D125" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M125" t="n">
+        <v>100</v>
+      </c>
+      <c r="N125" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>43854.86111111111</v>
+        <v>43875.86111111111</v>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43854.86111111111</v>
+        <v>43875.86111111111</v>
       </c>
       <c r="C126" t="n">
         <v>55</v>
       </c>
       <c r="D126" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M126" t="n">
+        <v>100</v>
+      </c>
+      <c r="N126" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>43854.86805555555</v>
+        <v>43875.86805555555</v>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43854.86805555555</v>
+        <v>43875.86805555555</v>
       </c>
       <c r="C127" t="n">
         <v>55</v>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M127" t="n">
+        <v>100</v>
+      </c>
+      <c r="N127" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>43854.875</v>
+        <v>43875.875</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43854.875</v>
+        <v>43875.875</v>
       </c>
       <c r="C128" t="n">
         <v>55</v>
       </c>
       <c r="D128" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M128" t="n">
+        <v>100</v>
+      </c>
+      <c r="N128" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>43854.88194444445</v>
+        <v>43875.88194444445</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43854.88194444445</v>
+        <v>43875.88194444445</v>
       </c>
       <c r="C129" t="n">
         <v>55</v>
       </c>
       <c r="D129" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M129" t="n">
+        <v>100</v>
+      </c>
+      <c r="N129" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>43854.88888888889</v>
+        <v>43875.88888888889</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43854.88888888889</v>
+        <v>43875.88888888889</v>
       </c>
       <c r="C130" t="n">
         <v>55</v>
       </c>
       <c r="D130" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M130" t="n">
+        <v>100</v>
+      </c>
+      <c r="N130" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>43854.89583333334</v>
+        <v>43875.89583333334</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43854.89583333334</v>
+        <v>43875.89583333334</v>
       </c>
       <c r="C131" t="n">
         <v>55</v>
       </c>
       <c r="D131" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M131" t="n">
+        <v>100</v>
+      </c>
+      <c r="N131" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>43854.90277777778</v>
+        <v>43875.90277777778</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43854.90277777778</v>
+        <v>43875.90277777778</v>
       </c>
       <c r="C132" t="n">
         <v>55</v>
       </c>
       <c r="D132" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M132" t="n">
+        <v>100</v>
+      </c>
+      <c r="N132" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>43854.90972222222</v>
+        <v>43875.90972222222</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43854.90972222222</v>
+        <v>43875.90972222222</v>
       </c>
       <c r="C133" t="n">
         <v>55</v>
       </c>
       <c r="D133" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M133" t="n">
+        <v>100</v>
+      </c>
+      <c r="N133" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>43854.91666666666</v>
+        <v>43875.91666666666</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43854.91666666666</v>
+        <v>43875.91666666666</v>
       </c>
       <c r="C134" t="n">
         <v>55</v>
       </c>
       <c r="D134" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M134" t="n">
+        <v>100</v>
+      </c>
+      <c r="N134" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>43854.92361111111</v>
+        <v>43875.92361111111</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43854.92361111111</v>
+        <v>43875.92361111111</v>
       </c>
       <c r="C135" t="n">
         <v>55</v>
       </c>
       <c r="D135" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M135" t="n">
+        <v>100</v>
+      </c>
+      <c r="N135" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>43854.93055555555</v>
+        <v>43875.93055555555</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43854.93055555555</v>
+        <v>43875.93055555555</v>
       </c>
       <c r="C136" t="n">
         <v>55</v>
       </c>
       <c r="D136" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M136" t="n">
+        <v>100</v>
+      </c>
+      <c r="N136" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>43854.9375</v>
+        <v>43875.9375</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43854.9375</v>
+        <v>43875.9375</v>
       </c>
       <c r="C137" t="n">
         <v>55</v>
       </c>
       <c r="D137" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M137" t="n">
+        <v>100</v>
+      </c>
+      <c r="N137" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>43854.94444444445</v>
+        <v>43875.94444444445</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>43854.94444444445</v>
+        <v>43875.94444444445</v>
       </c>
       <c r="C138" t="n">
         <v>55</v>
       </c>
       <c r="D138" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M138" t="n">
+        <v>100</v>
+      </c>
+      <c r="N138" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>43854.95138888889</v>
+        <v>43875.95138888889</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43854.95138888889</v>
+        <v>43875.95138888889</v>
       </c>
       <c r="C139" t="n">
         <v>55</v>
       </c>
       <c r="D139" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M139" t="n">
+        <v>100</v>
+      </c>
+      <c r="N139" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>43854.95833333334</v>
+        <v>43875.95833333334</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43854.95833333334</v>
+        <v>43875.95833333334</v>
       </c>
       <c r="C140" t="n">
         <v>55</v>
@@ -5702,13 +6540,19 @@
       <c r="L140" t="n">
         <v>0</v>
       </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>43854.96527777778</v>
+        <v>43875.96527777778</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43854.96527777778</v>
+        <v>43875.96527777778</v>
       </c>
       <c r="C141" t="n">
         <v>55</v>
@@ -5740,13 +6584,19 @@
       <c r="L141" t="n">
         <v>0</v>
       </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>43854.97222222222</v>
+        <v>43875.97222222222</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43854.97222222222</v>
+        <v>43875.97222222222</v>
       </c>
       <c r="C142" t="n">
         <v>55</v>
@@ -5778,13 +6628,19 @@
       <c r="L142" t="n">
         <v>0</v>
       </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>43854.97916666666</v>
+        <v>43875.97916666666</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43854.97916666666</v>
+        <v>43875.97916666666</v>
       </c>
       <c r="C143" t="n">
         <v>55</v>
@@ -5816,13 +6672,19 @@
       <c r="L143" t="n">
         <v>0</v>
       </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>43854.98611111111</v>
+        <v>43875.98611111111</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43854.98611111111</v>
+        <v>43875.98611111111</v>
       </c>
       <c r="C144" t="n">
         <v>55</v>
@@ -5854,13 +6716,19 @@
       <c r="L144" t="n">
         <v>0</v>
       </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>43854.99305555555</v>
+        <v>43875.99305555555</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>43854.99305555555</v>
+        <v>43875.99305555555</v>
       </c>
       <c r="C145" t="n">
         <v>55</v>
@@ -5892,13 +6760,19 @@
       <c r="L145" t="n">
         <v>0</v>
       </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>43855</v>
+        <v>43876</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>43855</v>
+        <v>43876</v>
       </c>
       <c r="C146" t="n">
         <v>55</v>
@@ -5930,13 +6804,19 @@
       <c r="L146" t="n">
         <v>0</v>
       </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>43855.00694444445</v>
+        <v>43876.00694444445</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>43855.00694444445</v>
+        <v>43876.00694444445</v>
       </c>
       <c r="C147" t="n">
         <v>55</v>
@@ -5968,13 +6848,19 @@
       <c r="L147" t="n">
         <v>0</v>
       </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>43855.01388888889</v>
+        <v>43876.01388888889</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>43855.01388888889</v>
+        <v>43876.01388888889</v>
       </c>
       <c r="C148" t="n">
         <v>55</v>
@@ -6006,13 +6892,19 @@
       <c r="L148" t="n">
         <v>0</v>
       </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>43855.02083333334</v>
+        <v>43876.02083333334</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43855.02083333334</v>
+        <v>43876.02083333334</v>
       </c>
       <c r="C149" t="n">
         <v>55</v>
@@ -6044,13 +6936,19 @@
       <c r="L149" t="n">
         <v>0</v>
       </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>43855.02777777778</v>
+        <v>43876.02777777778</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>43855.02777777778</v>
+        <v>43876.02777777778</v>
       </c>
       <c r="C150" t="n">
         <v>55</v>
@@ -6082,13 +6980,19 @@
       <c r="L150" t="n">
         <v>0</v>
       </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>43855.03472222222</v>
+        <v>43876.03472222222</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>43855.03472222222</v>
+        <v>43876.03472222222</v>
       </c>
       <c r="C151" t="n">
         <v>55</v>
@@ -6120,13 +7024,19 @@
       <c r="L151" t="n">
         <v>0</v>
       </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>43855.04166666666</v>
+        <v>43876.04166666666</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43855.04166666666</v>
+        <v>43876.04166666666</v>
       </c>
       <c r="C152" t="n">
         <v>55</v>
@@ -6158,13 +7068,19 @@
       <c r="L152" t="n">
         <v>0</v>
       </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>43855.04861111111</v>
+        <v>43876.04861111111</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43855.04861111111</v>
+        <v>43876.04861111111</v>
       </c>
       <c r="C153" t="n">
         <v>55</v>
@@ -6196,13 +7112,19 @@
       <c r="L153" t="n">
         <v>0</v>
       </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>43855.05555555555</v>
+        <v>43876.05555555555</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>43855.05555555555</v>
+        <v>43876.05555555555</v>
       </c>
       <c r="C154" t="n">
         <v>55</v>
@@ -6234,13 +7156,19 @@
       <c r="L154" t="n">
         <v>0</v>
       </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>43855.0625</v>
+        <v>43876.0625</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>43855.0625</v>
+        <v>43876.0625</v>
       </c>
       <c r="C155" t="n">
         <v>55</v>
@@ -6272,13 +7200,19 @@
       <c r="L155" t="n">
         <v>0</v>
       </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>43855.06944444445</v>
+        <v>43876.06944444445</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43855.06944444445</v>
+        <v>43876.06944444445</v>
       </c>
       <c r="C156" t="n">
         <v>55</v>
@@ -6310,13 +7244,19 @@
       <c r="L156" t="n">
         <v>0</v>
       </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>43855.07638888889</v>
+        <v>43876.07638888889</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>43855.07638888889</v>
+        <v>43876.07638888889</v>
       </c>
       <c r="C157" t="n">
         <v>55</v>
@@ -6348,13 +7288,19 @@
       <c r="L157" t="n">
         <v>0</v>
       </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>43855.08333333334</v>
+        <v>43876.08333333334</v>
       </c>
       <c r="B158" s="1" t="n">
-        <v>43855.08333333334</v>
+        <v>43876.08333333334</v>
       </c>
       <c r="C158" t="n">
         <v>55</v>
@@ -6386,13 +7332,19 @@
       <c r="L158" t="n">
         <v>0</v>
       </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>43855.09027777778</v>
+        <v>43876.09027777778</v>
       </c>
       <c r="B159" s="1" t="n">
-        <v>43855.09027777778</v>
+        <v>43876.09027777778</v>
       </c>
       <c r="C159" t="n">
         <v>55</v>
@@ -6424,13 +7376,19 @@
       <c r="L159" t="n">
         <v>0</v>
       </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>43855.09722222222</v>
+        <v>43876.09722222222</v>
       </c>
       <c r="B160" s="1" t="n">
-        <v>43855.09722222222</v>
+        <v>43876.09722222222</v>
       </c>
       <c r="C160" t="n">
         <v>55</v>
@@ -6462,13 +7420,19 @@
       <c r="L160" t="n">
         <v>0</v>
       </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>43855.10416666666</v>
+        <v>43876.10416666666</v>
       </c>
       <c r="B161" s="1" t="n">
-        <v>43855.10416666666</v>
+        <v>43876.10416666666</v>
       </c>
       <c r="C161" t="n">
         <v>55</v>
@@ -6500,13 +7464,19 @@
       <c r="L161" t="n">
         <v>0</v>
       </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>43855.11111111111</v>
+        <v>43876.11111111111</v>
       </c>
       <c r="B162" s="1" t="n">
-        <v>43855.11111111111</v>
+        <v>43876.11111111111</v>
       </c>
       <c r="C162" t="n">
         <v>55</v>
@@ -6538,13 +7508,19 @@
       <c r="L162" t="n">
         <v>0</v>
       </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>43855.11805555555</v>
+        <v>43876.11805555555</v>
       </c>
       <c r="B163" s="1" t="n">
-        <v>43855.11805555555</v>
+        <v>43876.11805555555</v>
       </c>
       <c r="C163" t="n">
         <v>55</v>
@@ -6576,13 +7552,19 @@
       <c r="L163" t="n">
         <v>0</v>
       </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>43855.125</v>
+        <v>43876.125</v>
       </c>
       <c r="B164" s="1" t="n">
-        <v>43855.125</v>
+        <v>43876.125</v>
       </c>
       <c r="C164" t="n">
         <v>55</v>
@@ -6614,13 +7596,19 @@
       <c r="L164" t="n">
         <v>0</v>
       </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>43855.13194444445</v>
+        <v>43876.13194444445</v>
       </c>
       <c r="B165" s="1" t="n">
-        <v>43855.13194444445</v>
+        <v>43876.13194444445</v>
       </c>
       <c r="C165" t="n">
         <v>55</v>
@@ -6652,13 +7640,19 @@
       <c r="L165" t="n">
         <v>0</v>
       </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>43855.13888888889</v>
+        <v>43876.13888888889</v>
       </c>
       <c r="B166" s="1" t="n">
-        <v>43855.13888888889</v>
+        <v>43876.13888888889</v>
       </c>
       <c r="C166" t="n">
         <v>55</v>
@@ -6690,13 +7684,19 @@
       <c r="L166" t="n">
         <v>0</v>
       </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>43855.14583333334</v>
+        <v>43876.14583333334</v>
       </c>
       <c r="B167" s="1" t="n">
-        <v>43855.14583333334</v>
+        <v>43876.14583333334</v>
       </c>
       <c r="C167" t="n">
         <v>55</v>
@@ -6728,13 +7728,19 @@
       <c r="L167" t="n">
         <v>0</v>
       </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>43855.15277777778</v>
+        <v>43876.15277777778</v>
       </c>
       <c r="B168" s="1" t="n">
-        <v>43855.15277777778</v>
+        <v>43876.15277777778</v>
       </c>
       <c r="C168" t="n">
         <v>55</v>
@@ -6766,13 +7772,19 @@
       <c r="L168" t="n">
         <v>0</v>
       </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>43855.15972222222</v>
+        <v>43876.15972222222</v>
       </c>
       <c r="B169" s="1" t="n">
-        <v>43855.15972222222</v>
+        <v>43876.15972222222</v>
       </c>
       <c r="C169" t="n">
         <v>55</v>
@@ -6804,13 +7816,19 @@
       <c r="L169" t="n">
         <v>0</v>
       </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>43855.16666666666</v>
+        <v>43876.16666666666</v>
       </c>
       <c r="B170" s="1" t="n">
-        <v>43855.16666666666</v>
+        <v>43876.16666666666</v>
       </c>
       <c r="C170" t="n">
         <v>55</v>
@@ -6842,13 +7860,19 @@
       <c r="L170" t="n">
         <v>0</v>
       </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>43855.17361111111</v>
+        <v>43876.17361111111</v>
       </c>
       <c r="B171" s="1" t="n">
-        <v>43855.17361111111</v>
+        <v>43876.17361111111</v>
       </c>
       <c r="C171" t="n">
         <v>55</v>
@@ -6880,13 +7904,19 @@
       <c r="L171" t="n">
         <v>0</v>
       </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>43855.18055555555</v>
+        <v>43876.18055555555</v>
       </c>
       <c r="B172" s="1" t="n">
-        <v>43855.18055555555</v>
+        <v>43876.18055555555</v>
       </c>
       <c r="C172" t="n">
         <v>55</v>
@@ -6918,13 +7948,19 @@
       <c r="L172" t="n">
         <v>0</v>
       </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>43855.1875</v>
+        <v>43876.1875</v>
       </c>
       <c r="B173" s="1" t="n">
-        <v>43855.1875</v>
+        <v>43876.1875</v>
       </c>
       <c r="C173" t="n">
         <v>55</v>
@@ -6956,13 +7992,19 @@
       <c r="L173" t="n">
         <v>0</v>
       </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>43855.19444444445</v>
+        <v>43876.19444444445</v>
       </c>
       <c r="B174" s="1" t="n">
-        <v>43855.19444444445</v>
+        <v>43876.19444444445</v>
       </c>
       <c r="C174" t="n">
         <v>55</v>
@@ -6994,13 +8036,19 @@
       <c r="L174" t="n">
         <v>0</v>
       </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>43855.20138888889</v>
+        <v>43876.20138888889</v>
       </c>
       <c r="B175" s="1" t="n">
-        <v>43855.20138888889</v>
+        <v>43876.20138888889</v>
       </c>
       <c r="C175" t="n">
         <v>55</v>
@@ -7032,13 +8080,19 @@
       <c r="L175" t="n">
         <v>0</v>
       </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>43855.20833333334</v>
+        <v>43876.20833333334</v>
       </c>
       <c r="B176" s="1" t="n">
-        <v>43855.20833333334</v>
+        <v>43876.20833333334</v>
       </c>
       <c r="C176" t="n">
         <v>55</v>
@@ -7070,13 +8124,19 @@
       <c r="L176" t="n">
         <v>0</v>
       </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>43855.21527777778</v>
+        <v>43876.21527777778</v>
       </c>
       <c r="B177" s="1" t="n">
-        <v>43855.21527777778</v>
+        <v>43876.21527777778</v>
       </c>
       <c r="C177" t="n">
         <v>55</v>
@@ -7108,13 +8168,19 @@
       <c r="L177" t="n">
         <v>0</v>
       </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>43855.22222222222</v>
+        <v>43876.22222222222</v>
       </c>
       <c r="B178" s="1" t="n">
-        <v>43855.22222222222</v>
+        <v>43876.22222222222</v>
       </c>
       <c r="C178" t="n">
         <v>55</v>
@@ -7146,13 +8212,19 @@
       <c r="L178" t="n">
         <v>0</v>
       </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>43855.22916666666</v>
+        <v>43876.22916666666</v>
       </c>
       <c r="B179" s="1" t="n">
-        <v>43855.22916666666</v>
+        <v>43876.22916666666</v>
       </c>
       <c r="C179" t="n">
         <v>55</v>
@@ -7184,13 +8256,19 @@
       <c r="L179" t="n">
         <v>0</v>
       </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>43855.23611111111</v>
+        <v>43876.23611111111</v>
       </c>
       <c r="B180" s="1" t="n">
-        <v>43855.23611111111</v>
+        <v>43876.23611111111</v>
       </c>
       <c r="C180" t="n">
         <v>55</v>
@@ -7222,13 +8300,19 @@
       <c r="L180" t="n">
         <v>0</v>
       </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>43855.24305555555</v>
+        <v>43876.24305555555</v>
       </c>
       <c r="B181" s="1" t="n">
-        <v>43855.24305555555</v>
+        <v>43876.24305555555</v>
       </c>
       <c r="C181" t="n">
         <v>55</v>
@@ -7260,13 +8344,19 @@
       <c r="L181" t="n">
         <v>0</v>
       </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>43855.25</v>
+        <v>43876.25</v>
       </c>
       <c r="B182" s="1" t="n">
-        <v>43855.25</v>
+        <v>43876.25</v>
       </c>
       <c r="C182" t="n">
         <v>55</v>
@@ -7298,13 +8388,19 @@
       <c r="L182" t="n">
         <v>0</v>
       </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>43855.25694444445</v>
+        <v>43876.25694444445</v>
       </c>
       <c r="B183" s="1" t="n">
-        <v>43855.25694444445</v>
+        <v>43876.25694444445</v>
       </c>
       <c r="C183" t="n">
         <v>55</v>
@@ -7336,13 +8432,19 @@
       <c r="L183" t="n">
         <v>0</v>
       </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>43855.26388888889</v>
+        <v>43876.26388888889</v>
       </c>
       <c r="B184" s="1" t="n">
-        <v>43855.26388888889</v>
+        <v>43876.26388888889</v>
       </c>
       <c r="C184" t="n">
         <v>55</v>
@@ -7374,13 +8476,19 @@
       <c r="L184" t="n">
         <v>0</v>
       </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>43855.27083333334</v>
+        <v>43876.27083333334</v>
       </c>
       <c r="B185" s="1" t="n">
-        <v>43855.27083333334</v>
+        <v>43876.27083333334</v>
       </c>
       <c r="C185" t="n">
         <v>55</v>
@@ -7412,13 +8520,19 @@
       <c r="L185" t="n">
         <v>0</v>
       </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>43855.27777777778</v>
+        <v>43876.27777777778</v>
       </c>
       <c r="B186" s="1" t="n">
-        <v>43855.27777777778</v>
+        <v>43876.27777777778</v>
       </c>
       <c r="C186" t="n">
         <v>55</v>
@@ -7450,13 +8564,19 @@
       <c r="L186" t="n">
         <v>0</v>
       </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>43855.28472222222</v>
+        <v>43876.28472222222</v>
       </c>
       <c r="B187" s="1" t="n">
-        <v>43855.28472222222</v>
+        <v>43876.28472222222</v>
       </c>
       <c r="C187" t="n">
         <v>55</v>
@@ -7488,13 +8608,19 @@
       <c r="L187" t="n">
         <v>0</v>
       </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>43855.29166666666</v>
+        <v>43876.29166666666</v>
       </c>
       <c r="B188" s="1" t="n">
-        <v>43855.29166666666</v>
+        <v>43876.29166666666</v>
       </c>
       <c r="C188" t="n">
         <v>55</v>
@@ -7524,15 +8650,21 @@
         <v>100</v>
       </c>
       <c r="L188" t="n">
+        <v>100</v>
+      </c>
+      <c r="M188" t="n">
+        <v>100</v>
+      </c>
+      <c r="N188" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>43855.29861111111</v>
+        <v>43876.29861111111</v>
       </c>
       <c r="B189" s="1" t="n">
-        <v>43855.29861111111</v>
+        <v>43876.29861111111</v>
       </c>
       <c r="C189" t="n">
         <v>55</v>
@@ -7562,15 +8694,21 @@
         <v>100</v>
       </c>
       <c r="L189" t="n">
+        <v>100</v>
+      </c>
+      <c r="M189" t="n">
+        <v>100</v>
+      </c>
+      <c r="N189" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>43855.30555555555</v>
+        <v>43876.30555555555</v>
       </c>
       <c r="B190" s="1" t="n">
-        <v>43855.30555555555</v>
+        <v>43876.30555555555</v>
       </c>
       <c r="C190" t="n">
         <v>55</v>
@@ -7600,15 +8738,21 @@
         <v>100</v>
       </c>
       <c r="L190" t="n">
+        <v>100</v>
+      </c>
+      <c r="M190" t="n">
+        <v>100</v>
+      </c>
+      <c r="N190" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>43855.3125</v>
+        <v>43876.3125</v>
       </c>
       <c r="B191" s="1" t="n">
-        <v>43855.3125</v>
+        <v>43876.3125</v>
       </c>
       <c r="C191" t="n">
         <v>55</v>
@@ -7638,15 +8782,21 @@
         <v>100</v>
       </c>
       <c r="L191" t="n">
+        <v>100</v>
+      </c>
+      <c r="M191" t="n">
+        <v>100</v>
+      </c>
+      <c r="N191" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>43855.31944444445</v>
+        <v>43876.31944444445</v>
       </c>
       <c r="B192" s="1" t="n">
-        <v>43855.31944444445</v>
+        <v>43876.31944444445</v>
       </c>
       <c r="C192" t="n">
         <v>55</v>
@@ -7676,15 +8826,21 @@
         <v>100</v>
       </c>
       <c r="L192" t="n">
+        <v>100</v>
+      </c>
+      <c r="M192" t="n">
+        <v>100</v>
+      </c>
+      <c r="N192" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>43855.32638888889</v>
+        <v>43876.32638888889</v>
       </c>
       <c r="B193" s="1" t="n">
-        <v>43855.32638888889</v>
+        <v>43876.32638888889</v>
       </c>
       <c r="C193" t="n">
         <v>55</v>
@@ -7714,15 +8870,21 @@
         <v>100</v>
       </c>
       <c r="L193" t="n">
+        <v>100</v>
+      </c>
+      <c r="M193" t="n">
+        <v>100</v>
+      </c>
+      <c r="N193" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>43855.33333333334</v>
+        <v>43876.33333333334</v>
       </c>
       <c r="B194" s="1" t="n">
-        <v>43855.33333333334</v>
+        <v>43876.33333333334</v>
       </c>
       <c r="C194" t="n">
         <v>55</v>
@@ -7752,15 +8914,21 @@
         <v>100</v>
       </c>
       <c r="L194" t="n">
+        <v>100</v>
+      </c>
+      <c r="M194" t="n">
+        <v>100</v>
+      </c>
+      <c r="N194" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>43855.34027777778</v>
+        <v>43876.34027777778</v>
       </c>
       <c r="B195" s="1" t="n">
-        <v>43855.34027777778</v>
+        <v>43876.34027777778</v>
       </c>
       <c r="C195" t="n">
         <v>55</v>
@@ -7790,15 +8958,21 @@
         <v>100</v>
       </c>
       <c r="L195" t="n">
+        <v>100</v>
+      </c>
+      <c r="M195" t="n">
+        <v>100</v>
+      </c>
+      <c r="N195" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>43855.34722222222</v>
+        <v>43876.34722222222</v>
       </c>
       <c r="B196" s="1" t="n">
-        <v>43855.34722222222</v>
+        <v>43876.34722222222</v>
       </c>
       <c r="C196" t="n">
         <v>55</v>
@@ -7828,15 +9002,21 @@
         <v>100</v>
       </c>
       <c r="L196" t="n">
+        <v>100</v>
+      </c>
+      <c r="M196" t="n">
+        <v>100</v>
+      </c>
+      <c r="N196" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>43855.35416666666</v>
+        <v>43876.35416666666</v>
       </c>
       <c r="B197" s="1" t="n">
-        <v>43855.35416666666</v>
+        <v>43876.35416666666</v>
       </c>
       <c r="C197" t="n">
         <v>55</v>
@@ -7866,15 +9046,21 @@
         <v>100</v>
       </c>
       <c r="L197" t="n">
+        <v>100</v>
+      </c>
+      <c r="M197" t="n">
+        <v>100</v>
+      </c>
+      <c r="N197" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>43855.36111111111</v>
+        <v>43876.36111111111</v>
       </c>
       <c r="B198" s="1" t="n">
-        <v>43855.36111111111</v>
+        <v>43876.36111111111</v>
       </c>
       <c r="C198" t="n">
         <v>55</v>
@@ -7904,15 +9090,21 @@
         <v>100</v>
       </c>
       <c r="L198" t="n">
+        <v>100</v>
+      </c>
+      <c r="M198" t="n">
+        <v>100</v>
+      </c>
+      <c r="N198" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>43855.36805555555</v>
+        <v>43876.36805555555</v>
       </c>
       <c r="B199" s="1" t="n">
-        <v>43855.36805555555</v>
+        <v>43876.36805555555</v>
       </c>
       <c r="C199" t="n">
         <v>55</v>
@@ -7942,15 +9134,21 @@
         <v>100</v>
       </c>
       <c r="L199" t="n">
+        <v>100</v>
+      </c>
+      <c r="M199" t="n">
+        <v>100</v>
+      </c>
+      <c r="N199" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>43855.375</v>
+        <v>43876.375</v>
       </c>
       <c r="B200" s="1" t="n">
-        <v>43855.375</v>
+        <v>43876.375</v>
       </c>
       <c r="C200" t="n">
         <v>55</v>
@@ -7980,15 +9178,21 @@
         <v>100</v>
       </c>
       <c r="L200" t="n">
+        <v>100</v>
+      </c>
+      <c r="M200" t="n">
+        <v>100</v>
+      </c>
+      <c r="N200" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>43855.38194444445</v>
+        <v>43876.38194444445</v>
       </c>
       <c r="B201" s="1" t="n">
-        <v>43855.38194444445</v>
+        <v>43876.38194444445</v>
       </c>
       <c r="C201" t="n">
         <v>55</v>
@@ -8018,15 +9222,21 @@
         <v>100</v>
       </c>
       <c r="L201" t="n">
+        <v>100</v>
+      </c>
+      <c r="M201" t="n">
+        <v>100</v>
+      </c>
+      <c r="N201" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>43855.38888888889</v>
+        <v>43876.38888888889</v>
       </c>
       <c r="B202" s="1" t="n">
-        <v>43855.38888888889</v>
+        <v>43876.38888888889</v>
       </c>
       <c r="C202" t="n">
         <v>55</v>
@@ -8056,15 +9266,21 @@
         <v>100</v>
       </c>
       <c r="L202" t="n">
+        <v>100</v>
+      </c>
+      <c r="M202" t="n">
+        <v>100</v>
+      </c>
+      <c r="N202" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>43855.39583333334</v>
+        <v>43876.39583333334</v>
       </c>
       <c r="B203" s="1" t="n">
-        <v>43855.39583333334</v>
+        <v>43876.39583333334</v>
       </c>
       <c r="C203" t="n">
         <v>55</v>
@@ -8094,15 +9310,21 @@
         <v>100</v>
       </c>
       <c r="L203" t="n">
+        <v>100</v>
+      </c>
+      <c r="M203" t="n">
+        <v>100</v>
+      </c>
+      <c r="N203" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>43855.40277777778</v>
+        <v>43876.40277777778</v>
       </c>
       <c r="B204" s="1" t="n">
-        <v>43855.40277777778</v>
+        <v>43876.40277777778</v>
       </c>
       <c r="C204" t="n">
         <v>55</v>
@@ -8132,15 +9354,21 @@
         <v>100</v>
       </c>
       <c r="L204" t="n">
+        <v>100</v>
+      </c>
+      <c r="M204" t="n">
+        <v>100</v>
+      </c>
+      <c r="N204" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>43855.40972222222</v>
+        <v>43876.40972222222</v>
       </c>
       <c r="B205" s="1" t="n">
-        <v>43855.40972222222</v>
+        <v>43876.40972222222</v>
       </c>
       <c r="C205" t="n">
         <v>55</v>
@@ -8170,15 +9398,21 @@
         <v>100</v>
       </c>
       <c r="L205" t="n">
+        <v>100</v>
+      </c>
+      <c r="M205" t="n">
+        <v>100</v>
+      </c>
+      <c r="N205" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>43855.41666666666</v>
+        <v>43876.41666666666</v>
       </c>
       <c r="B206" s="1" t="n">
-        <v>43855.41666666666</v>
+        <v>43876.41666666666</v>
       </c>
       <c r="C206" t="n">
         <v>55</v>
@@ -8208,15 +9442,21 @@
         <v>100</v>
       </c>
       <c r="L206" t="n">
+        <v>100</v>
+      </c>
+      <c r="M206" t="n">
+        <v>100</v>
+      </c>
+      <c r="N206" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>43855.42361111111</v>
+        <v>43876.42361111111</v>
       </c>
       <c r="B207" s="1" t="n">
-        <v>43855.42361111111</v>
+        <v>43876.42361111111</v>
       </c>
       <c r="C207" t="n">
         <v>55</v>
@@ -8246,15 +9486,21 @@
         <v>100</v>
       </c>
       <c r="L207" t="n">
+        <v>100</v>
+      </c>
+      <c r="M207" t="n">
+        <v>100</v>
+      </c>
+      <c r="N207" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>43855.43055555555</v>
+        <v>43876.43055555555</v>
       </c>
       <c r="B208" s="1" t="n">
-        <v>43855.43055555555</v>
+        <v>43876.43055555555</v>
       </c>
       <c r="C208" t="n">
         <v>55</v>
@@ -8284,15 +9530,21 @@
         <v>100</v>
       </c>
       <c r="L208" t="n">
+        <v>100</v>
+      </c>
+      <c r="M208" t="n">
+        <v>100</v>
+      </c>
+      <c r="N208" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>43855.4375</v>
+        <v>43876.4375</v>
       </c>
       <c r="B209" s="1" t="n">
-        <v>43855.4375</v>
+        <v>43876.4375</v>
       </c>
       <c r="C209" t="n">
         <v>55</v>
@@ -8322,15 +9574,21 @@
         <v>100</v>
       </c>
       <c r="L209" t="n">
+        <v>100</v>
+      </c>
+      <c r="M209" t="n">
+        <v>100</v>
+      </c>
+      <c r="N209" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>43855.44444444445</v>
+        <v>43876.44444444445</v>
       </c>
       <c r="B210" s="1" t="n">
-        <v>43855.44444444445</v>
+        <v>43876.44444444445</v>
       </c>
       <c r="C210" t="n">
         <v>55</v>
@@ -8360,15 +9618,21 @@
         <v>100</v>
       </c>
       <c r="L210" t="n">
+        <v>100</v>
+      </c>
+      <c r="M210" t="n">
+        <v>100</v>
+      </c>
+      <c r="N210" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>43855.45138888889</v>
+        <v>43876.45138888889</v>
       </c>
       <c r="B211" s="1" t="n">
-        <v>43855.45138888889</v>
+        <v>43876.45138888889</v>
       </c>
       <c r="C211" t="n">
         <v>55</v>
@@ -8398,15 +9662,21 @@
         <v>100</v>
       </c>
       <c r="L211" t="n">
+        <v>100</v>
+      </c>
+      <c r="M211" t="n">
+        <v>100</v>
+      </c>
+      <c r="N211" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>43855.45833333334</v>
+        <v>43876.45833333334</v>
       </c>
       <c r="B212" s="1" t="n">
-        <v>43855.45833333334</v>
+        <v>43876.45833333334</v>
       </c>
       <c r="C212" t="n">
         <v>55</v>
@@ -8436,15 +9706,21 @@
         <v>100</v>
       </c>
       <c r="L212" t="n">
+        <v>100</v>
+      </c>
+      <c r="M212" t="n">
+        <v>100</v>
+      </c>
+      <c r="N212" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>43855.46527777778</v>
+        <v>43876.46527777778</v>
       </c>
       <c r="B213" s="1" t="n">
-        <v>43855.46527777778</v>
+        <v>43876.46527777778</v>
       </c>
       <c r="C213" t="n">
         <v>55</v>
@@ -8474,15 +9750,21 @@
         <v>100</v>
       </c>
       <c r="L213" t="n">
+        <v>100</v>
+      </c>
+      <c r="M213" t="n">
+        <v>100</v>
+      </c>
+      <c r="N213" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>43855.47222222222</v>
+        <v>43876.47222222222</v>
       </c>
       <c r="B214" s="1" t="n">
-        <v>43855.47222222222</v>
+        <v>43876.47222222222</v>
       </c>
       <c r="C214" t="n">
         <v>55</v>
@@ -8512,15 +9794,21 @@
         <v>100</v>
       </c>
       <c r="L214" t="n">
+        <v>100</v>
+      </c>
+      <c r="M214" t="n">
+        <v>100</v>
+      </c>
+      <c r="N214" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>43855.47916666666</v>
+        <v>43876.47916666666</v>
       </c>
       <c r="B215" s="1" t="n">
-        <v>43855.47916666666</v>
+        <v>43876.47916666666</v>
       </c>
       <c r="C215" t="n">
         <v>55</v>
@@ -8550,15 +9838,21 @@
         <v>100</v>
       </c>
       <c r="L215" t="n">
+        <v>100</v>
+      </c>
+      <c r="M215" t="n">
+        <v>100</v>
+      </c>
+      <c r="N215" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>43855.48611111111</v>
+        <v>43876.48611111111</v>
       </c>
       <c r="B216" s="1" t="n">
-        <v>43855.48611111111</v>
+        <v>43876.48611111111</v>
       </c>
       <c r="C216" t="n">
         <v>55</v>
@@ -8588,15 +9882,21 @@
         <v>100</v>
       </c>
       <c r="L216" t="n">
+        <v>100</v>
+      </c>
+      <c r="M216" t="n">
+        <v>100</v>
+      </c>
+      <c r="N216" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>43855.49305555555</v>
+        <v>43876.49305555555</v>
       </c>
       <c r="B217" s="1" t="n">
-        <v>43855.49305555555</v>
+        <v>43876.49305555555</v>
       </c>
       <c r="C217" t="n">
         <v>55</v>
@@ -8626,15 +9926,21 @@
         <v>100</v>
       </c>
       <c r="L217" t="n">
+        <v>100</v>
+      </c>
+      <c r="M217" t="n">
+        <v>100</v>
+      </c>
+      <c r="N217" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>43855.5</v>
+        <v>43876.5</v>
       </c>
       <c r="B218" s="1" t="n">
-        <v>43855.5</v>
+        <v>43876.5</v>
       </c>
       <c r="C218" t="n">
         <v>55</v>
@@ -8664,15 +9970,21 @@
         <v>100</v>
       </c>
       <c r="L218" t="n">
+        <v>100</v>
+      </c>
+      <c r="M218" t="n">
+        <v>100</v>
+      </c>
+      <c r="N218" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>43855.50694444445</v>
+        <v>43876.50694444445</v>
       </c>
       <c r="B219" s="1" t="n">
-        <v>43855.50694444445</v>
+        <v>43876.50694444445</v>
       </c>
       <c r="C219" t="n">
         <v>55</v>
@@ -8702,15 +10014,21 @@
         <v>100</v>
       </c>
       <c r="L219" t="n">
+        <v>100</v>
+      </c>
+      <c r="M219" t="n">
+        <v>100</v>
+      </c>
+      <c r="N219" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>43855.51388888889</v>
+        <v>43876.51388888889</v>
       </c>
       <c r="B220" s="1" t="n">
-        <v>43855.51388888889</v>
+        <v>43876.51388888889</v>
       </c>
       <c r="C220" t="n">
         <v>55</v>
@@ -8740,15 +10058,21 @@
         <v>100</v>
       </c>
       <c r="L220" t="n">
+        <v>100</v>
+      </c>
+      <c r="M220" t="n">
+        <v>100</v>
+      </c>
+      <c r="N220" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>43855.52083333334</v>
+        <v>43876.52083333334</v>
       </c>
       <c r="B221" s="1" t="n">
-        <v>43855.52083333334</v>
+        <v>43876.52083333334</v>
       </c>
       <c r="C221" t="n">
         <v>55</v>
@@ -8778,15 +10102,21 @@
         <v>100</v>
       </c>
       <c r="L221" t="n">
+        <v>100</v>
+      </c>
+      <c r="M221" t="n">
+        <v>100</v>
+      </c>
+      <c r="N221" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>43855.52777777778</v>
+        <v>43876.52777777778</v>
       </c>
       <c r="B222" s="1" t="n">
-        <v>43855.52777777778</v>
+        <v>43876.52777777778</v>
       </c>
       <c r="C222" t="n">
         <v>55</v>
@@ -8816,15 +10146,21 @@
         <v>100</v>
       </c>
       <c r="L222" t="n">
+        <v>100</v>
+      </c>
+      <c r="M222" t="n">
+        <v>100</v>
+      </c>
+      <c r="N222" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>43855.53472222222</v>
+        <v>43876.53472222222</v>
       </c>
       <c r="B223" s="1" t="n">
-        <v>43855.53472222222</v>
+        <v>43876.53472222222</v>
       </c>
       <c r="C223" t="n">
         <v>55</v>
@@ -8854,15 +10190,21 @@
         <v>100</v>
       </c>
       <c r="L223" t="n">
+        <v>100</v>
+      </c>
+      <c r="M223" t="n">
+        <v>100</v>
+      </c>
+      <c r="N223" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>43855.54166666666</v>
+        <v>43876.54166666666</v>
       </c>
       <c r="B224" s="1" t="n">
-        <v>43855.54166666666</v>
+        <v>43876.54166666666</v>
       </c>
       <c r="C224" t="n">
         <v>55</v>
@@ -8892,15 +10234,21 @@
         <v>100</v>
       </c>
       <c r="L224" t="n">
+        <v>100</v>
+      </c>
+      <c r="M224" t="n">
+        <v>100</v>
+      </c>
+      <c r="N224" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>43855.54861111111</v>
+        <v>43876.54861111111</v>
       </c>
       <c r="B225" s="1" t="n">
-        <v>43855.54861111111</v>
+        <v>43876.54861111111</v>
       </c>
       <c r="C225" t="n">
         <v>55</v>
@@ -8930,15 +10278,21 @@
         <v>100</v>
       </c>
       <c r="L225" t="n">
+        <v>100</v>
+      </c>
+      <c r="M225" t="n">
+        <v>100</v>
+      </c>
+      <c r="N225" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>43855.55555555555</v>
+        <v>43876.55555555555</v>
       </c>
       <c r="B226" s="1" t="n">
-        <v>43855.55555555555</v>
+        <v>43876.55555555555</v>
       </c>
       <c r="C226" t="n">
         <v>55</v>
@@ -8968,15 +10322,21 @@
         <v>100</v>
       </c>
       <c r="L226" t="n">
+        <v>100</v>
+      </c>
+      <c r="M226" t="n">
+        <v>100</v>
+      </c>
+      <c r="N226" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>43855.5625</v>
+        <v>43876.5625</v>
       </c>
       <c r="B227" s="1" t="n">
-        <v>43855.5625</v>
+        <v>43876.5625</v>
       </c>
       <c r="C227" t="n">
         <v>55</v>
@@ -9006,15 +10366,21 @@
         <v>100</v>
       </c>
       <c r="L227" t="n">
+        <v>100</v>
+      </c>
+      <c r="M227" t="n">
+        <v>100</v>
+      </c>
+      <c r="N227" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>43855.56944444445</v>
+        <v>43876.56944444445</v>
       </c>
       <c r="B228" s="1" t="n">
-        <v>43855.56944444445</v>
+        <v>43876.56944444445</v>
       </c>
       <c r="C228" t="n">
         <v>55</v>
@@ -9044,15 +10410,21 @@
         <v>100</v>
       </c>
       <c r="L228" t="n">
+        <v>100</v>
+      </c>
+      <c r="M228" t="n">
+        <v>100</v>
+      </c>
+      <c r="N228" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>43855.57638888889</v>
+        <v>43876.57638888889</v>
       </c>
       <c r="B229" s="1" t="n">
-        <v>43855.57638888889</v>
+        <v>43876.57638888889</v>
       </c>
       <c r="C229" t="n">
         <v>55</v>
@@ -9082,15 +10454,21 @@
         <v>100</v>
       </c>
       <c r="L229" t="n">
+        <v>100</v>
+      </c>
+      <c r="M229" t="n">
+        <v>100</v>
+      </c>
+      <c r="N229" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>43855.58333333334</v>
+        <v>43876.58333333334</v>
       </c>
       <c r="B230" s="1" t="n">
-        <v>43855.58333333334</v>
+        <v>43876.58333333334</v>
       </c>
       <c r="C230" t="n">
         <v>55</v>
@@ -9120,15 +10498,21 @@
         <v>100</v>
       </c>
       <c r="L230" t="n">
+        <v>100</v>
+      </c>
+      <c r="M230" t="n">
+        <v>100</v>
+      </c>
+      <c r="N230" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>43855.59027777778</v>
+        <v>43876.59027777778</v>
       </c>
       <c r="B231" s="1" t="n">
-        <v>43855.59027777778</v>
+        <v>43876.59027777778</v>
       </c>
       <c r="C231" t="n">
         <v>55</v>
@@ -9158,15 +10542,21 @@
         <v>100</v>
       </c>
       <c r="L231" t="n">
+        <v>100</v>
+      </c>
+      <c r="M231" t="n">
+        <v>100</v>
+      </c>
+      <c r="N231" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>43855.59722222222</v>
+        <v>43876.59722222222</v>
       </c>
       <c r="B232" s="1" t="n">
-        <v>43855.59722222222</v>
+        <v>43876.59722222222</v>
       </c>
       <c r="C232" t="n">
         <v>55</v>
@@ -9196,15 +10586,21 @@
         <v>100</v>
       </c>
       <c r="L232" t="n">
+        <v>100</v>
+      </c>
+      <c r="M232" t="n">
+        <v>100</v>
+      </c>
+      <c r="N232" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>43855.60416666666</v>
+        <v>43876.60416666666</v>
       </c>
       <c r="B233" s="1" t="n">
-        <v>43855.60416666666</v>
+        <v>43876.60416666666</v>
       </c>
       <c r="C233" t="n">
         <v>55</v>
@@ -9234,15 +10630,21 @@
         <v>100</v>
       </c>
       <c r="L233" t="n">
+        <v>100</v>
+      </c>
+      <c r="M233" t="n">
+        <v>100</v>
+      </c>
+      <c r="N233" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>43855.61111111111</v>
+        <v>43876.61111111111</v>
       </c>
       <c r="B234" s="1" t="n">
-        <v>43855.61111111111</v>
+        <v>43876.61111111111</v>
       </c>
       <c r="C234" t="n">
         <v>55</v>
@@ -9272,15 +10674,21 @@
         <v>100</v>
       </c>
       <c r="L234" t="n">
+        <v>100</v>
+      </c>
+      <c r="M234" t="n">
+        <v>100</v>
+      </c>
+      <c r="N234" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>43855.61805555555</v>
+        <v>43876.61805555555</v>
       </c>
       <c r="B235" s="1" t="n">
-        <v>43855.61805555555</v>
+        <v>43876.61805555555</v>
       </c>
       <c r="C235" t="n">
         <v>55</v>
@@ -9310,15 +10718,21 @@
         <v>100</v>
       </c>
       <c r="L235" t="n">
+        <v>100</v>
+      </c>
+      <c r="M235" t="n">
+        <v>100</v>
+      </c>
+      <c r="N235" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>43855.625</v>
+        <v>43876.625</v>
       </c>
       <c r="B236" s="1" t="n">
-        <v>43855.625</v>
+        <v>43876.625</v>
       </c>
       <c r="C236" t="n">
         <v>55</v>
@@ -9348,15 +10762,21 @@
         <v>100</v>
       </c>
       <c r="L236" t="n">
+        <v>100</v>
+      </c>
+      <c r="M236" t="n">
+        <v>100</v>
+      </c>
+      <c r="N236" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>43855.63194444445</v>
+        <v>43876.63194444445</v>
       </c>
       <c r="B237" s="1" t="n">
-        <v>43855.63194444445</v>
+        <v>43876.63194444445</v>
       </c>
       <c r="C237" t="n">
         <v>55</v>
@@ -9386,15 +10806,21 @@
         <v>100</v>
       </c>
       <c r="L237" t="n">
+        <v>100</v>
+      </c>
+      <c r="M237" t="n">
+        <v>100</v>
+      </c>
+      <c r="N237" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>43855.63888888889</v>
+        <v>43876.63888888889</v>
       </c>
       <c r="B238" s="1" t="n">
-        <v>43855.63888888889</v>
+        <v>43876.63888888889</v>
       </c>
       <c r="C238" t="n">
         <v>55</v>
@@ -9424,15 +10850,21 @@
         <v>100</v>
       </c>
       <c r="L238" t="n">
+        <v>100</v>
+      </c>
+      <c r="M238" t="n">
+        <v>100</v>
+      </c>
+      <c r="N238" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>43855.64583333334</v>
+        <v>43876.64583333334</v>
       </c>
       <c r="B239" s="1" t="n">
-        <v>43855.64583333334</v>
+        <v>43876.64583333334</v>
       </c>
       <c r="C239" t="n">
         <v>55</v>
@@ -9462,15 +10894,21 @@
         <v>100</v>
       </c>
       <c r="L239" t="n">
+        <v>100</v>
+      </c>
+      <c r="M239" t="n">
+        <v>100</v>
+      </c>
+      <c r="N239" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>43855.65277777778</v>
+        <v>43876.65277777778</v>
       </c>
       <c r="B240" s="1" t="n">
-        <v>43855.65277777778</v>
+        <v>43876.65277777778</v>
       </c>
       <c r="C240" t="n">
         <v>55</v>
@@ -9500,15 +10938,21 @@
         <v>100</v>
       </c>
       <c r="L240" t="n">
+        <v>100</v>
+      </c>
+      <c r="M240" t="n">
+        <v>100</v>
+      </c>
+      <c r="N240" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>43855.65972222222</v>
+        <v>43876.65972222222</v>
       </c>
       <c r="B241" s="1" t="n">
-        <v>43855.65972222222</v>
+        <v>43876.65972222222</v>
       </c>
       <c r="C241" t="n">
         <v>55</v>
@@ -9538,15 +10982,21 @@
         <v>100</v>
       </c>
       <c r="L241" t="n">
+        <v>100</v>
+      </c>
+      <c r="M241" t="n">
+        <v>100</v>
+      </c>
+      <c r="N241" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>43855.66666666666</v>
+        <v>43876.66666666666</v>
       </c>
       <c r="B242" s="1" t="n">
-        <v>43855.66666666666</v>
+        <v>43876.66666666666</v>
       </c>
       <c r="C242" t="n">
         <v>55</v>
@@ -9576,15 +11026,21 @@
         <v>100</v>
       </c>
       <c r="L242" t="n">
+        <v>100</v>
+      </c>
+      <c r="M242" t="n">
+        <v>100</v>
+      </c>
+      <c r="N242" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>43855.67361111111</v>
+        <v>43876.67361111111</v>
       </c>
       <c r="B243" s="1" t="n">
-        <v>43855.67361111111</v>
+        <v>43876.67361111111</v>
       </c>
       <c r="C243" t="n">
         <v>55</v>
@@ -9614,15 +11070,21 @@
         <v>100</v>
       </c>
       <c r="L243" t="n">
+        <v>100</v>
+      </c>
+      <c r="M243" t="n">
+        <v>100</v>
+      </c>
+      <c r="N243" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>43855.68055555555</v>
+        <v>43876.68055555555</v>
       </c>
       <c r="B244" s="1" t="n">
-        <v>43855.68055555555</v>
+        <v>43876.68055555555</v>
       </c>
       <c r="C244" t="n">
         <v>55</v>
@@ -9652,15 +11114,21 @@
         <v>100</v>
       </c>
       <c r="L244" t="n">
+        <v>100</v>
+      </c>
+      <c r="M244" t="n">
+        <v>100</v>
+      </c>
+      <c r="N244" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>43855.6875</v>
+        <v>43876.6875</v>
       </c>
       <c r="B245" s="1" t="n">
-        <v>43855.6875</v>
+        <v>43876.6875</v>
       </c>
       <c r="C245" t="n">
         <v>55</v>
@@ -9690,15 +11158,21 @@
         <v>100</v>
       </c>
       <c r="L245" t="n">
+        <v>100</v>
+      </c>
+      <c r="M245" t="n">
+        <v>100</v>
+      </c>
+      <c r="N245" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>43855.69444444445</v>
+        <v>43876.69444444445</v>
       </c>
       <c r="B246" s="1" t="n">
-        <v>43855.69444444445</v>
+        <v>43876.69444444445</v>
       </c>
       <c r="C246" t="n">
         <v>55</v>
@@ -9728,15 +11202,21 @@
         <v>100</v>
       </c>
       <c r="L246" t="n">
+        <v>100</v>
+      </c>
+      <c r="M246" t="n">
+        <v>100</v>
+      </c>
+      <c r="N246" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>43855.70138888889</v>
+        <v>43876.70138888889</v>
       </c>
       <c r="B247" s="1" t="n">
-        <v>43855.70138888889</v>
+        <v>43876.70138888889</v>
       </c>
       <c r="C247" t="n">
         <v>55</v>
@@ -9766,1383 +11246,1605 @@
         <v>100</v>
       </c>
       <c r="L247" t="n">
+        <v>100</v>
+      </c>
+      <c r="M247" t="n">
+        <v>100</v>
+      </c>
+      <c r="N247" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>43855.70833333334</v>
+        <v>43876.70833333334</v>
       </c>
       <c r="B248" s="1" t="n">
-        <v>43855.70833333334</v>
+        <v>43876.70833333334</v>
       </c>
       <c r="C248" t="n">
         <v>55</v>
       </c>
       <c r="D248" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L248" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M248" t="n">
+        <v>100</v>
+      </c>
+      <c r="N248" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>43855.71527777778</v>
+        <v>43876.71527777778</v>
       </c>
       <c r="B249" s="1" t="n">
-        <v>43855.71527777778</v>
+        <v>43876.71527777778</v>
       </c>
       <c r="C249" t="n">
         <v>55</v>
       </c>
       <c r="D249" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L249" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M249" t="n">
+        <v>100</v>
+      </c>
+      <c r="N249" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>43855.72222222222</v>
+        <v>43876.72222222222</v>
       </c>
       <c r="B250" s="1" t="n">
-        <v>43855.72222222222</v>
+        <v>43876.72222222222</v>
       </c>
       <c r="C250" t="n">
         <v>55</v>
       </c>
       <c r="D250" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L250" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M250" t="n">
+        <v>100</v>
+      </c>
+      <c r="N250" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>43855.72916666666</v>
+        <v>43876.72916666666</v>
       </c>
       <c r="B251" s="1" t="n">
-        <v>43855.72916666666</v>
+        <v>43876.72916666666</v>
       </c>
       <c r="C251" t="n">
         <v>55</v>
       </c>
       <c r="D251" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L251" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M251" t="n">
+        <v>100</v>
+      </c>
+      <c r="N251" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>43855.73611111111</v>
+        <v>43876.73611111111</v>
       </c>
       <c r="B252" s="1" t="n">
-        <v>43855.73611111111</v>
+        <v>43876.73611111111</v>
       </c>
       <c r="C252" t="n">
         <v>55</v>
       </c>
       <c r="D252" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J252" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M252" t="n">
+        <v>100</v>
+      </c>
+      <c r="N252" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>43855.74305555555</v>
+        <v>43876.74305555555</v>
       </c>
       <c r="B253" s="1" t="n">
-        <v>43855.74305555555</v>
+        <v>43876.74305555555</v>
       </c>
       <c r="C253" t="n">
         <v>55</v>
       </c>
       <c r="D253" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J253" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L253" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M253" t="n">
+        <v>100</v>
+      </c>
+      <c r="N253" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>43855.75</v>
+        <v>43876.75</v>
       </c>
       <c r="B254" s="1" t="n">
-        <v>43855.75</v>
+        <v>43876.75</v>
       </c>
       <c r="C254" t="n">
         <v>55</v>
       </c>
       <c r="D254" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L254" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M254" t="n">
+        <v>100</v>
+      </c>
+      <c r="N254" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>43855.75694444445</v>
+        <v>43876.75694444445</v>
       </c>
       <c r="B255" s="1" t="n">
-        <v>43855.75694444445</v>
+        <v>43876.75694444445</v>
       </c>
       <c r="C255" t="n">
         <v>55</v>
       </c>
       <c r="D255" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J255" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L255" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M255" t="n">
+        <v>100</v>
+      </c>
+      <c r="N255" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>43855.76388888889</v>
+        <v>43876.76388888889</v>
       </c>
       <c r="B256" s="1" t="n">
-        <v>43855.76388888889</v>
+        <v>43876.76388888889</v>
       </c>
       <c r="C256" t="n">
         <v>55</v>
       </c>
       <c r="D256" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J256" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L256" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M256" t="n">
+        <v>100</v>
+      </c>
+      <c r="N256" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>43855.77083333334</v>
+        <v>43876.77083333334</v>
       </c>
       <c r="B257" s="1" t="n">
-        <v>43855.77083333334</v>
+        <v>43876.77083333334</v>
       </c>
       <c r="C257" t="n">
         <v>55</v>
       </c>
       <c r="D257" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J257" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L257" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M257" t="n">
+        <v>100</v>
+      </c>
+      <c r="N257" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>43855.77777777778</v>
+        <v>43876.77777777778</v>
       </c>
       <c r="B258" s="1" t="n">
-        <v>43855.77777777778</v>
+        <v>43876.77777777778</v>
       </c>
       <c r="C258" t="n">
         <v>55</v>
       </c>
       <c r="D258" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J258" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L258" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M258" t="n">
+        <v>100</v>
+      </c>
+      <c r="N258" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>43855.78472222222</v>
+        <v>43876.78472222222</v>
       </c>
       <c r="B259" s="1" t="n">
-        <v>43855.78472222222</v>
+        <v>43876.78472222222</v>
       </c>
       <c r="C259" t="n">
         <v>55</v>
       </c>
       <c r="D259" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L259" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M259" t="n">
+        <v>100</v>
+      </c>
+      <c r="N259" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>43855.79166666666</v>
+        <v>43876.79166666666</v>
       </c>
       <c r="B260" s="1" t="n">
-        <v>43855.79166666666</v>
+        <v>43876.79166666666</v>
       </c>
       <c r="C260" t="n">
         <v>55</v>
       </c>
       <c r="D260" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L260" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M260" t="n">
+        <v>100</v>
+      </c>
+      <c r="N260" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>43855.79861111111</v>
+        <v>43876.79861111111</v>
       </c>
       <c r="B261" s="1" t="n">
-        <v>43855.79861111111</v>
+        <v>43876.79861111111</v>
       </c>
       <c r="C261" t="n">
         <v>55</v>
       </c>
       <c r="D261" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L261" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M261" t="n">
+        <v>100</v>
+      </c>
+      <c r="N261" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>43855.80555555555</v>
+        <v>43876.80555555555</v>
       </c>
       <c r="B262" s="1" t="n">
-        <v>43855.80555555555</v>
+        <v>43876.80555555555</v>
       </c>
       <c r="C262" t="n">
         <v>55</v>
       </c>
       <c r="D262" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L262" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M262" t="n">
+        <v>100</v>
+      </c>
+      <c r="N262" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>43855.8125</v>
+        <v>43876.8125</v>
       </c>
       <c r="B263" s="1" t="n">
-        <v>43855.8125</v>
+        <v>43876.8125</v>
       </c>
       <c r="C263" t="n">
         <v>55</v>
       </c>
       <c r="D263" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L263" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M263" t="n">
+        <v>100</v>
+      </c>
+      <c r="N263" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>43855.81944444445</v>
+        <v>43876.81944444445</v>
       </c>
       <c r="B264" s="1" t="n">
-        <v>43855.81944444445</v>
+        <v>43876.81944444445</v>
       </c>
       <c r="C264" t="n">
         <v>55</v>
       </c>
       <c r="D264" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L264" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M264" t="n">
+        <v>100</v>
+      </c>
+      <c r="N264" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>43855.82638888889</v>
+        <v>43876.82638888889</v>
       </c>
       <c r="B265" s="1" t="n">
-        <v>43855.82638888889</v>
+        <v>43876.82638888889</v>
       </c>
       <c r="C265" t="n">
         <v>55</v>
       </c>
       <c r="D265" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L265" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M265" t="n">
+        <v>100</v>
+      </c>
+      <c r="N265" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>43855.83333333334</v>
+        <v>43876.83333333334</v>
       </c>
       <c r="B266" s="1" t="n">
-        <v>43855.83333333334</v>
+        <v>43876.83333333334</v>
       </c>
       <c r="C266" t="n">
         <v>55</v>
       </c>
       <c r="D266" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L266" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M266" t="n">
+        <v>100</v>
+      </c>
+      <c r="N266" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>43855.84027777778</v>
+        <v>43876.84027777778</v>
       </c>
       <c r="B267" s="1" t="n">
-        <v>43855.84027777778</v>
+        <v>43876.84027777778</v>
       </c>
       <c r="C267" t="n">
         <v>55</v>
       </c>
       <c r="D267" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L267" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M267" t="n">
+        <v>100</v>
+      </c>
+      <c r="N267" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>43855.84722222222</v>
+        <v>43876.84722222222</v>
       </c>
       <c r="B268" s="1" t="n">
-        <v>43855.84722222222</v>
+        <v>43876.84722222222</v>
       </c>
       <c r="C268" t="n">
         <v>55</v>
       </c>
       <c r="D268" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J268" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L268" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M268" t="n">
+        <v>100</v>
+      </c>
+      <c r="N268" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>43855.85416666666</v>
+        <v>43876.85416666666</v>
       </c>
       <c r="B269" s="1" t="n">
-        <v>43855.85416666666</v>
+        <v>43876.85416666666</v>
       </c>
       <c r="C269" t="n">
         <v>55</v>
       </c>
       <c r="D269" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L269" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M269" t="n">
+        <v>100</v>
+      </c>
+      <c r="N269" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>43855.86111111111</v>
+        <v>43876.86111111111</v>
       </c>
       <c r="B270" s="1" t="n">
-        <v>43855.86111111111</v>
+        <v>43876.86111111111</v>
       </c>
       <c r="C270" t="n">
         <v>55</v>
       </c>
       <c r="D270" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L270" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M270" t="n">
+        <v>100</v>
+      </c>
+      <c r="N270" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>43855.86805555555</v>
+        <v>43876.86805555555</v>
       </c>
       <c r="B271" s="1" t="n">
-        <v>43855.86805555555</v>
+        <v>43876.86805555555</v>
       </c>
       <c r="C271" t="n">
         <v>55</v>
       </c>
       <c r="D271" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L271" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M271" t="n">
+        <v>100</v>
+      </c>
+      <c r="N271" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>43855.875</v>
+        <v>43876.875</v>
       </c>
       <c r="B272" s="1" t="n">
-        <v>43855.875</v>
+        <v>43876.875</v>
       </c>
       <c r="C272" t="n">
         <v>55</v>
       </c>
       <c r="D272" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J272" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L272" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M272" t="n">
+        <v>100</v>
+      </c>
+      <c r="N272" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>43855.88194444445</v>
+        <v>43876.88194444445</v>
       </c>
       <c r="B273" s="1" t="n">
-        <v>43855.88194444445</v>
+        <v>43876.88194444445</v>
       </c>
       <c r="C273" t="n">
         <v>55</v>
       </c>
       <c r="D273" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L273" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M273" t="n">
+        <v>100</v>
+      </c>
+      <c r="N273" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>43855.88888888889</v>
+        <v>43876.88888888889</v>
       </c>
       <c r="B274" s="1" t="n">
-        <v>43855.88888888889</v>
+        <v>43876.88888888889</v>
       </c>
       <c r="C274" t="n">
         <v>55</v>
       </c>
       <c r="D274" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L274" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M274" t="n">
+        <v>100</v>
+      </c>
+      <c r="N274" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>43855.89583333334</v>
+        <v>43876.89583333334</v>
       </c>
       <c r="B275" s="1" t="n">
-        <v>43855.89583333334</v>
+        <v>43876.89583333334</v>
       </c>
       <c r="C275" t="n">
         <v>55</v>
       </c>
       <c r="D275" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L275" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M275" t="n">
+        <v>100</v>
+      </c>
+      <c r="N275" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>43855.90277777778</v>
+        <v>43876.90277777778</v>
       </c>
       <c r="B276" s="1" t="n">
-        <v>43855.90277777778</v>
+        <v>43876.90277777778</v>
       </c>
       <c r="C276" t="n">
         <v>55</v>
       </c>
       <c r="D276" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J276" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L276" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M276" t="n">
+        <v>100</v>
+      </c>
+      <c r="N276" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>43855.90972222222</v>
+        <v>43876.90972222222</v>
       </c>
       <c r="B277" s="1" t="n">
-        <v>43855.90972222222</v>
+        <v>43876.90972222222</v>
       </c>
       <c r="C277" t="n">
         <v>55</v>
       </c>
       <c r="D277" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L277" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M277" t="n">
+        <v>100</v>
+      </c>
+      <c r="N277" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>43855.91666666666</v>
+        <v>43876.91666666666</v>
       </c>
       <c r="B278" s="1" t="n">
-        <v>43855.91666666666</v>
+        <v>43876.91666666666</v>
       </c>
       <c r="C278" t="n">
         <v>55</v>
       </c>
       <c r="D278" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L278" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M278" t="n">
+        <v>100</v>
+      </c>
+      <c r="N278" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>43855.92361111111</v>
+        <v>43876.92361111111</v>
       </c>
       <c r="B279" s="1" t="n">
-        <v>43855.92361111111</v>
+        <v>43876.92361111111</v>
       </c>
       <c r="C279" t="n">
         <v>55</v>
       </c>
       <c r="D279" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L279" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M279" t="n">
+        <v>100</v>
+      </c>
+      <c r="N279" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>43855.93055555555</v>
+        <v>43876.93055555555</v>
       </c>
       <c r="B280" s="1" t="n">
-        <v>43855.93055555555</v>
+        <v>43876.93055555555</v>
       </c>
       <c r="C280" t="n">
         <v>55</v>
       </c>
       <c r="D280" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L280" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M280" t="n">
+        <v>100</v>
+      </c>
+      <c r="N280" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>43855.9375</v>
+        <v>43876.9375</v>
       </c>
       <c r="B281" s="1" t="n">
-        <v>43855.9375</v>
+        <v>43876.9375</v>
       </c>
       <c r="C281" t="n">
         <v>55</v>
       </c>
       <c r="D281" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J281" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L281" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M281" t="n">
+        <v>100</v>
+      </c>
+      <c r="N281" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>43855.94444444445</v>
+        <v>43876.94444444445</v>
       </c>
       <c r="B282" s="1" t="n">
-        <v>43855.94444444445</v>
+        <v>43876.94444444445</v>
       </c>
       <c r="C282" t="n">
         <v>55</v>
       </c>
       <c r="D282" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L282" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M282" t="n">
+        <v>100</v>
+      </c>
+      <c r="N282" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>43855.95138888889</v>
+        <v>43876.95138888889</v>
       </c>
       <c r="B283" s="1" t="n">
-        <v>43855.95138888889</v>
+        <v>43876.95138888889</v>
       </c>
       <c r="C283" t="n">
         <v>55</v>
       </c>
       <c r="D283" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L283" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M283" t="n">
+        <v>100</v>
+      </c>
+      <c r="N283" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>43855.95833333334</v>
+        <v>43876.95833333334</v>
       </c>
       <c r="B284" s="1" t="n">
-        <v>43855.95833333334</v>
+        <v>43876.95833333334</v>
       </c>
       <c r="C284" t="n">
         <v>55</v>
@@ -11174,13 +12876,19 @@
       <c r="L284" t="n">
         <v>0</v>
       </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>43855.96527777778</v>
+        <v>43876.96527777778</v>
       </c>
       <c r="B285" s="1" t="n">
-        <v>43855.96527777778</v>
+        <v>43876.96527777778</v>
       </c>
       <c r="C285" t="n">
         <v>55</v>
@@ -11212,13 +12920,19 @@
       <c r="L285" t="n">
         <v>0</v>
       </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>43855.97222222222</v>
+        <v>43876.97222222222</v>
       </c>
       <c r="B286" s="1" t="n">
-        <v>43855.97222222222</v>
+        <v>43876.97222222222</v>
       </c>
       <c r="C286" t="n">
         <v>55</v>
@@ -11250,13 +12964,19 @@
       <c r="L286" t="n">
         <v>0</v>
       </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>43855.97916666666</v>
+        <v>43876.97916666666</v>
       </c>
       <c r="B287" s="1" t="n">
-        <v>43855.97916666666</v>
+        <v>43876.97916666666</v>
       </c>
       <c r="C287" t="n">
         <v>55</v>
@@ -11288,13 +13008,19 @@
       <c r="L287" t="n">
         <v>0</v>
       </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>43855.98611111111</v>
+        <v>43876.98611111111</v>
       </c>
       <c r="B288" s="1" t="n">
-        <v>43855.98611111111</v>
+        <v>43876.98611111111</v>
       </c>
       <c r="C288" t="n">
         <v>55</v>
@@ -11326,13 +13052,19 @@
       <c r="L288" t="n">
         <v>0</v>
       </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>43855.99305555555</v>
+        <v>43876.99305555555</v>
       </c>
       <c r="B289" s="1" t="n">
-        <v>43855.99305555555</v>
+        <v>43876.99305555555</v>
       </c>
       <c r="C289" t="n">
         <v>55</v>
@@ -11362,6 +13094,12 @@
         <v>0</v>
       </c>
       <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
         <v>0</v>
       </c>
     </row>
